--- a/Реестр оцененных опасностей_ИОУПР.xlsx
+++ b/Реестр оцененных опасностей_ИОУПР.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zheny\OneDrive\Desktop\печеня\dev\techoavia-roman-backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995ECE93-A8D6-4782-BB04-CDB082B4145C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD3B65DB-0983-417F-9F36-80CD0EEECD38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,8 @@
     <sheet name="диаграмма для отчета" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'реестр опасностей'!$A$1:$AJ$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'реестр опасностей'!$A$15:$AJ$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'реестр опасностей'!$A$1:$AJ$35</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -148,7 +149,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <name val="Arial"/>
@@ -182,6 +183,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -331,7 +337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -356,21 +362,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="top" wrapText="1"/>
@@ -406,9 +397,48 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -423,24 +453,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1900,10 +1912,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ34"/>
+  <dimension ref="A1:AMJ36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A15" sqref="A15:AJ15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1951,570 +1963,630 @@
       <c r="AA1" s="2"/>
     </row>
     <row r="2" spans="1:1024" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z2" s="39" t="s">
+      <c r="Z2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="AA2" s="39"/>
-      <c r="AB2" s="39"/>
-      <c r="AC2" s="39"/>
-      <c r="AD2" s="39"/>
-      <c r="AE2" s="39"/>
-      <c r="AF2" s="39"/>
-      <c r="AG2" s="39"/>
-      <c r="AH2" s="39"/>
-      <c r="AI2" s="39"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="30"/>
+      <c r="AF2" s="30"/>
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="30"/>
+      <c r="AI2" s="30"/>
     </row>
     <row r="3" spans="1:1024" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:1024" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AE4" s="39"/>
-      <c r="AF4" s="39"/>
-      <c r="AG4" s="39"/>
-      <c r="AH4" s="39"/>
-      <c r="AI4" s="39"/>
-      <c r="AJ4" s="39"/>
+      <c r="AE4" s="30"/>
+      <c r="AF4" s="30"/>
+      <c r="AG4" s="30"/>
+      <c r="AH4" s="30"/>
+      <c r="AI4" s="30"/>
+      <c r="AJ4" s="30"/>
     </row>
     <row r="5" spans="1:1024" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z5" s="36" t="s">
+      <c r="Z5" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="AA5" s="36"/>
-      <c r="AB5" s="36"/>
-      <c r="AE5" s="36" t="s">
+      <c r="AA5" s="31"/>
+      <c r="AB5" s="31"/>
+      <c r="AE5" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="AF5" s="36"/>
-      <c r="AG5" s="36"/>
-      <c r="AH5" s="36"/>
-      <c r="AI5" s="36"/>
-      <c r="AJ5" s="36"/>
+      <c r="AF5" s="31"/>
+      <c r="AG5" s="31"/>
+      <c r="AH5" s="31"/>
+      <c r="AI5" s="31"/>
+      <c r="AJ5" s="31"/>
     </row>
     <row r="6" spans="1:1024" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:1024" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AH7" s="36" t="s">
+      <c r="AH7" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="AI7" s="36"/>
-      <c r="AJ7" s="36"/>
+      <c r="AI7" s="31"/>
+      <c r="AJ7" s="31"/>
     </row>
     <row r="8" spans="1:1024" ht="41.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G8" s="34" t="s">
+      <c r="G8" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="34"/>
-      <c r="U8" s="34"/>
-      <c r="V8" s="34"/>
-      <c r="W8" s="34"/>
-      <c r="X8" s="34"/>
-      <c r="Y8" s="34"/>
-      <c r="Z8" s="34"/>
-      <c r="AA8" s="34"/>
-      <c r="AB8" s="34"/>
-      <c r="AC8" s="34"/>
-      <c r="AD8" s="34"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="32"/>
+      <c r="U8" s="32"/>
+      <c r="V8" s="32"/>
+      <c r="W8" s="32"/>
+      <c r="X8" s="32"/>
+      <c r="Y8" s="32"/>
+      <c r="Z8" s="32"/>
+      <c r="AA8" s="32"/>
+      <c r="AB8" s="32"/>
+      <c r="AC8" s="32"/>
+      <c r="AD8" s="32"/>
     </row>
     <row r="9" spans="1:1024" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:1024" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="35"/>
-      <c r="S10" s="35"/>
-      <c r="T10" s="35"/>
-      <c r="U10" s="35"/>
-      <c r="V10" s="35"/>
-      <c r="W10" s="35"/>
-      <c r="X10" s="35"/>
-      <c r="Y10" s="35"/>
-      <c r="Z10" s="35"/>
-      <c r="AA10" s="35"/>
-      <c r="AB10" s="35"/>
-      <c r="AC10" s="35"/>
-      <c r="AD10" s="35"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="33"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="33"/>
+      <c r="W10" s="33"/>
+      <c r="X10" s="33"/>
+      <c r="Y10" s="33"/>
+      <c r="Z10" s="33"/>
+      <c r="AA10" s="33"/>
+      <c r="AB10" s="33"/>
+      <c r="AC10" s="33"/>
+      <c r="AD10" s="33"/>
     </row>
     <row r="11" spans="1:1024" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G11" s="36" t="s">
+      <c r="G11" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
-      <c r="S11" s="36"/>
-      <c r="T11" s="36"/>
-      <c r="U11" s="36"/>
-      <c r="V11" s="36"/>
-      <c r="W11" s="36"/>
-      <c r="X11" s="36"/>
-      <c r="Y11" s="36"/>
-      <c r="Z11" s="36"/>
-      <c r="AA11" s="36"/>
-      <c r="AB11" s="36"/>
-      <c r="AC11" s="36"/>
-      <c r="AD11" s="36"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="31"/>
+      <c r="S11" s="31"/>
+      <c r="T11" s="31"/>
+      <c r="U11" s="31"/>
+      <c r="V11" s="31"/>
+      <c r="W11" s="31"/>
+      <c r="X11" s="31"/>
+      <c r="Y11" s="31"/>
+      <c r="Z11" s="31"/>
+      <c r="AA11" s="31"/>
+      <c r="AB11" s="31"/>
+      <c r="AC11" s="31"/>
+      <c r="AD11" s="31"/>
     </row>
     <row r="12" spans="1:1024" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:1024" s="3" customFormat="1" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="28" t="s">
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="37" t="s">
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="28" t="s">
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="28" t="s">
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="S13" s="28"/>
-      <c r="T13" s="28" t="s">
+      <c r="S13" s="35"/>
+      <c r="T13" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="U13" s="28"/>
-      <c r="V13" s="28"/>
-      <c r="W13" s="28"/>
-      <c r="X13" s="28" t="s">
+      <c r="U13" s="35"/>
+      <c r="V13" s="35"/>
+      <c r="W13" s="35"/>
+      <c r="X13" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="Y13" s="28"/>
-      <c r="Z13" s="28"/>
-      <c r="AA13" s="38" t="s">
+      <c r="Y13" s="35"/>
+      <c r="Z13" s="35"/>
+      <c r="AA13" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="AB13" s="38"/>
-      <c r="AC13" s="38"/>
-      <c r="AD13" s="28" t="s">
+      <c r="AB13" s="36"/>
+      <c r="AC13" s="36"/>
+      <c r="AD13" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="AE13" s="28"/>
-      <c r="AF13" s="28"/>
-      <c r="AG13" s="28" t="s">
+      <c r="AE13" s="35"/>
+      <c r="AF13" s="35"/>
+      <c r="AG13" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="AH13" s="28"/>
-      <c r="AI13" s="29" t="s">
+      <c r="AH13" s="35"/>
+      <c r="AI13" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="AJ13" s="29"/>
+      <c r="AJ13" s="37"/>
       <c r="AMJ13"/>
     </row>
     <row r="14" spans="1:1024" s="5" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="23">
+      <c r="B14" s="18">
         <v>2</v>
       </c>
-      <c r="C14" s="30">
+      <c r="C14" s="38">
         <v>3</v>
       </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="32">
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="40">
         <v>4</v>
       </c>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="30">
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="38">
         <v>5</v>
       </c>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30">
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38">
         <v>6</v>
       </c>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30">
+      <c r="P14" s="38"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="38">
         <v>7</v>
       </c>
-      <c r="S14" s="30"/>
-      <c r="T14" s="30">
+      <c r="S14" s="38"/>
+      <c r="T14" s="38">
         <v>8</v>
       </c>
-      <c r="U14" s="30"/>
-      <c r="V14" s="30"/>
-      <c r="W14" s="30"/>
-      <c r="X14" s="30">
+      <c r="U14" s="38"/>
+      <c r="V14" s="38"/>
+      <c r="W14" s="38"/>
+      <c r="X14" s="38">
         <v>9</v>
       </c>
-      <c r="Y14" s="30"/>
-      <c r="Z14" s="30"/>
-      <c r="AA14" s="33">
+      <c r="Y14" s="38"/>
+      <c r="Z14" s="38"/>
+      <c r="AA14" s="41">
         <v>10</v>
       </c>
-      <c r="AB14" s="33"/>
-      <c r="AC14" s="33"/>
-      <c r="AD14" s="30">
+      <c r="AB14" s="41"/>
+      <c r="AC14" s="41"/>
+      <c r="AD14" s="38">
         <v>11</v>
       </c>
-      <c r="AE14" s="30"/>
-      <c r="AF14" s="30"/>
-      <c r="AG14" s="30">
+      <c r="AE14" s="38"/>
+      <c r="AF14" s="38"/>
+      <c r="AG14" s="38">
         <v>12</v>
       </c>
-      <c r="AH14" s="30"/>
-      <c r="AI14" s="31">
+      <c r="AH14" s="38"/>
+      <c r="AI14" s="39">
         <v>13</v>
       </c>
-      <c r="AJ14" s="31"/>
+      <c r="AJ14" s="39"/>
       <c r="AMJ14"/>
     </row>
-    <row r="15" spans="1:1024" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="13"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="12"/>
-      <c r="Z15" s="12"/>
-      <c r="AA15" s="13"/>
-      <c r="AB15" s="13"/>
-      <c r="AC15" s="13"/>
-      <c r="AD15" s="12"/>
-      <c r="AE15" s="12"/>
-      <c r="AF15" s="12"/>
-      <c r="AG15" s="12"/>
-      <c r="AH15" s="12"/>
-      <c r="AI15" s="12"/>
-      <c r="AJ15" s="12"/>
-      <c r="AMJ15"/>
-    </row>
-    <row r="16" spans="1:1024" s="7" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="18" t="s">
+    <row r="15" spans="1:1024" s="23" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="27"/>
+      <c r="V15" s="27"/>
+      <c r="W15" s="27"/>
+      <c r="X15" s="27"/>
+      <c r="Y15" s="27"/>
+      <c r="Z15" s="27"/>
+      <c r="AA15" s="28"/>
+      <c r="AB15" s="28"/>
+      <c r="AC15" s="29"/>
+      <c r="AD15" s="27"/>
+      <c r="AE15" s="27"/>
+      <c r="AF15" s="27"/>
+      <c r="AG15" s="27"/>
+      <c r="AH15" s="27"/>
+      <c r="AI15" s="27"/>
+      <c r="AJ15" s="27"/>
+    </row>
+    <row r="16" spans="1:1024" s="23" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="27"/>
+      <c r="U16" s="27"/>
+      <c r="V16" s="27"/>
+      <c r="W16" s="27"/>
+      <c r="X16" s="27"/>
+      <c r="Y16" s="27"/>
+      <c r="Z16" s="27"/>
+      <c r="AA16" s="28"/>
+      <c r="AB16" s="28"/>
+      <c r="AC16" s="29"/>
+      <c r="AD16" s="27"/>
+      <c r="AE16" s="27"/>
+      <c r="AF16" s="27"/>
+      <c r="AG16" s="27"/>
+      <c r="AH16" s="27"/>
+      <c r="AI16" s="27"/>
+      <c r="AJ16" s="27"/>
+    </row>
+    <row r="17" spans="1:1024" s="5" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="24"/>
+      <c r="U17" s="24"/>
+      <c r="V17" s="24"/>
+      <c r="W17" s="24"/>
+      <c r="X17" s="24"/>
+      <c r="Y17" s="24"/>
+      <c r="Z17" s="24"/>
+      <c r="AA17" s="25"/>
+      <c r="AB17" s="25"/>
+      <c r="AC17" s="26"/>
+      <c r="AD17" s="24"/>
+      <c r="AE17" s="24"/>
+      <c r="AF17" s="24"/>
+      <c r="AG17" s="24"/>
+      <c r="AH17" s="24"/>
+      <c r="AI17" s="24"/>
+      <c r="AJ17" s="24"/>
+      <c r="AMJ17"/>
+    </row>
+    <row r="18" spans="1:1024" s="7" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="17"/>
-      <c r="V16" s="17"/>
-      <c r="W16" s="17"/>
-      <c r="X16" s="17"/>
-      <c r="Y16" s="17"/>
-      <c r="Z16" s="17"/>
-      <c r="AA16" s="14"/>
-      <c r="AB16" s="14"/>
-      <c r="AC16" s="14"/>
-      <c r="AD16" s="17"/>
-      <c r="AE16" s="17"/>
-      <c r="AF16" s="17"/>
-      <c r="AG16" s="17"/>
-      <c r="AH16" s="17"/>
-      <c r="AI16" s="17"/>
-      <c r="AJ16" s="17"/>
-      <c r="AMJ16"/>
-    </row>
-    <row r="17" spans="1:1024" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="1:1024" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="12"/>
+      <c r="AA18" s="9"/>
+      <c r="AB18" s="9"/>
+      <c r="AC18" s="9"/>
+      <c r="AD18" s="12"/>
+      <c r="AE18" s="12"/>
+      <c r="AF18" s="12"/>
+      <c r="AG18" s="12"/>
+      <c r="AH18" s="12"/>
+      <c r="AI18" s="12"/>
+      <c r="AJ18" s="12"/>
+      <c r="AMJ18"/>
+    </row>
+    <row r="19" spans="1:1024" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:1024" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-    </row>
-    <row r="19" spans="1:1024" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AMJ19"/>
-    </row>
-    <row r="20" spans="1:1024" s="7" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="25"/>
-      <c r="AMJ20"/>
-    </row>
-    <row r="21" spans="1:1024" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E21" s="26" t="s">
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+    </row>
+    <row r="21" spans="1:1024" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AMJ21"/>
+    </row>
+    <row r="22" spans="1:1024" s="7" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
+      <c r="AMJ22"/>
+    </row>
+    <row r="23" spans="1:1024" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E23" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="N21" s="27" t="s">
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="N23" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="27"/>
-      <c r="U21" s="26" t="s">
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="22"/>
+      <c r="U23" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="V21" s="26"/>
-      <c r="Z21" s="26" t="s">
+      <c r="V23" s="21"/>
+      <c r="Z23" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="AA21" s="26"/>
-      <c r="AB21" s="26"/>
-      <c r="AC21" s="26"/>
-      <c r="AD21" s="26"/>
-    </row>
-    <row r="22" spans="1:1024" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="1:1024" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AMJ23"/>
-    </row>
-    <row r="24" spans="1:1024" s="7" customFormat="1" ht="60.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="25"/>
-      <c r="AMJ24"/>
-    </row>
-    <row r="25" spans="1:1024" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E25" s="26" t="s">
+      <c r="AA23" s="21"/>
+      <c r="AB23" s="21"/>
+      <c r="AC23" s="21"/>
+      <c r="AD23" s="21"/>
+    </row>
+    <row r="24" spans="1:1024" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:1024" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AMJ25"/>
+    </row>
+    <row r="26" spans="1:1024" s="7" customFormat="1" ht="60.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="20"/>
+      <c r="AMJ26"/>
+    </row>
+    <row r="27" spans="1:1024" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E27" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="N25" s="27" t="s">
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="N27" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="27"/>
-      <c r="R25" s="27"/>
-      <c r="U25" s="26" t="s">
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
+      <c r="U27" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="V25" s="26"/>
-      <c r="Z25" s="26" t="s">
+      <c r="V27" s="21"/>
+      <c r="Z27" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="AA25" s="26"/>
-      <c r="AB25" s="26"/>
-      <c r="AC25" s="26"/>
-      <c r="AD25" s="26"/>
-    </row>
-    <row r="26" spans="1:1024" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:1024" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AMJ27"/>
-    </row>
-    <row r="28" spans="1:1024" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="N28" s="25"/>
-      <c r="O28" s="25"/>
-      <c r="P28" s="25"/>
-      <c r="Q28" s="25"/>
-      <c r="R28" s="25"/>
-      <c r="AMJ28"/>
-    </row>
-    <row r="29" spans="1:1024" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E29" s="26" t="s">
+      <c r="AA27" s="21"/>
+      <c r="AB27" s="21"/>
+      <c r="AC27" s="21"/>
+      <c r="AD27" s="21"/>
+    </row>
+    <row r="28" spans="1:1024" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:1024" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AMJ29"/>
+    </row>
+    <row r="30" spans="1:1024" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="20"/>
+      <c r="R30" s="20"/>
+      <c r="AMJ30"/>
+    </row>
+    <row r="31" spans="1:1024" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E31" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="26"/>
-      <c r="N29" s="27" t="s">
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="N31" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="O29" s="27"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="27"/>
-      <c r="R29" s="27"/>
-      <c r="U29" s="26" t="s">
+      <c r="O31" s="22"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="22"/>
+      <c r="U31" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="V29" s="26"/>
-      <c r="Z29" s="26" t="s">
+      <c r="V31" s="21"/>
+      <c r="Z31" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="AA29" s="26"/>
-      <c r="AB29" s="26"/>
-      <c r="AC29" s="26"/>
-      <c r="AD29" s="26"/>
-    </row>
-    <row r="30" spans="1:1024" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:1024" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AMJ31"/>
-    </row>
-    <row r="32" spans="1:1024" s="7" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
-      <c r="N32" s="25"/>
-      <c r="O32" s="25"/>
-      <c r="P32" s="25"/>
-      <c r="Q32" s="25"/>
-      <c r="R32" s="25"/>
-      <c r="AMJ32"/>
-    </row>
-    <row r="33" spans="5:30" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E33" s="26" t="s">
+      <c r="AA31" s="21"/>
+      <c r="AB31" s="21"/>
+      <c r="AC31" s="21"/>
+      <c r="AD31" s="21"/>
+    </row>
+    <row r="32" spans="1:1024" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" spans="5:1024" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AMJ33"/>
+    </row>
+    <row r="34" spans="5:1024" s="7" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="20"/>
+      <c r="R34" s="20"/>
+      <c r="AMJ34"/>
+    </row>
+    <row r="35" spans="5:1024" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E35" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="26"/>
-      <c r="L33" s="26"/>
-      <c r="N33" s="27" t="s">
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="N35" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="O33" s="27"/>
-      <c r="P33" s="27"/>
-      <c r="Q33" s="27"/>
-      <c r="R33" s="27"/>
-      <c r="U33" s="26" t="s">
+      <c r="O35" s="22"/>
+      <c r="P35" s="22"/>
+      <c r="Q35" s="22"/>
+      <c r="R35" s="22"/>
+      <c r="U35" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="V33" s="26"/>
-      <c r="Z33" s="26" t="s">
+      <c r="V35" s="21"/>
+      <c r="Z35" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="AA33" s="26"/>
-      <c r="AB33" s="26"/>
-      <c r="AC33" s="26"/>
-      <c r="AD33" s="26"/>
-    </row>
-    <row r="34" spans="5:30" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="AA35" s="21"/>
+      <c r="AB35" s="21"/>
+      <c r="AC35" s="21"/>
+      <c r="AD35" s="21"/>
+    </row>
+    <row r="36" spans="5:1024" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="Z2:AI2"/>
-    <mergeCell ref="AE4:AJ4"/>
-    <mergeCell ref="Z5:AB5"/>
-    <mergeCell ref="AE5:AJ5"/>
-    <mergeCell ref="AH7:AJ7"/>
-    <mergeCell ref="G8:AD8"/>
-    <mergeCell ref="G10:AD10"/>
-    <mergeCell ref="G11:AD11"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:K13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="T13:W13"/>
-    <mergeCell ref="X13:Z13"/>
-    <mergeCell ref="AA13:AC13"/>
-    <mergeCell ref="AD13:AF13"/>
     <mergeCell ref="AG13:AH13"/>
     <mergeCell ref="AI13:AJ13"/>
     <mergeCell ref="AG14:AH14"/>
@@ -2528,6 +2600,23 @@
     <mergeCell ref="X14:Z14"/>
     <mergeCell ref="AA14:AC14"/>
     <mergeCell ref="AD14:AF14"/>
+    <mergeCell ref="G8:AD8"/>
+    <mergeCell ref="G10:AD10"/>
+    <mergeCell ref="G11:AD11"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:K13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="T13:W13"/>
+    <mergeCell ref="X13:Z13"/>
+    <mergeCell ref="AA13:AC13"/>
+    <mergeCell ref="AD13:AF13"/>
+    <mergeCell ref="Z2:AI2"/>
+    <mergeCell ref="AE4:AJ4"/>
+    <mergeCell ref="Z5:AB5"/>
+    <mergeCell ref="AE5:AJ5"/>
+    <mergeCell ref="AH7:AJ7"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.39374999999999999" right="0.39374999999999999" top="0.39374999999999999" bottom="0.39374999999999999" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -2550,21 +2639,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="Q2" s="20" t="s">
+      <c r="Q2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="R2" s="20" t="s">
+      <c r="R2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="S2" s="20" t="s">
+      <c r="S2" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="T2" s="20" t="s">
+      <c r="T2" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" s="19"/>
+      <c r="A3" s="14"/>
       <c r="B3" t="s">
         <v>28</v>
       </c>
@@ -2579,19 +2668,19 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="16">
         <f>S21/T26</f>
         <v>3.8461538461538464E-2</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="16">
         <f>R21/T26</f>
         <v>0.30769230769230771</v>
       </c>
@@ -2606,10 +2695,10 @@
       </c>
     </row>
     <row r="6" spans="1:20" ht="45" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="16">
         <f>Q21/T26</f>
         <v>0.65384615384615385</v>
       </c>

--- a/Реестр оцененных опасностей_ИОУПР.xlsx
+++ b/Реестр оцененных опасностей_ИОУПР.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zheny\OneDrive\Desktop\печеня\dev\techoavia-roman-backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD3B65DB-0983-417F-9F36-80CD0EEECD38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB12423-B0DC-461B-8491-8E3503A14BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
   <si>
     <t>УТВЕРЖДАЮ:</t>
   </si>
@@ -66,24 +66,15 @@
     <t>№ п/п</t>
   </si>
   <si>
-    <t>№ опасности*</t>
-  </si>
-  <si>
     <t>Опасность</t>
   </si>
   <si>
-    <t>№ опасного события*</t>
-  </si>
-  <si>
     <t>Опасное событие</t>
   </si>
   <si>
     <t>Количество работников/ рабочих мест</t>
   </si>
   <si>
-    <t>Незначитель-  ный риск</t>
-  </si>
-  <si>
     <t>Низкий риск</t>
   </si>
   <si>
@@ -93,9 +84,6 @@
     <t>Высокий риск</t>
   </si>
   <si>
-    <t>Критичес-кий риск</t>
-  </si>
-  <si>
     <t>Интегральная оценка уровня риска</t>
   </si>
   <si>
@@ -106,11 +94,6 @@
   </si>
   <si>
     <t>(должность)</t>
-  </si>
-  <si>
-    <t>* Приложение №1 Приказа Минтруда России от 29.10.2021 №776н «Об утверждении Примерного положения о системе управления охраной труда» 
-ИЛИ
-Приложение №2 Приказа Минтруда России от 29.10.2021 №767н "Об утверждении ЕТН"</t>
   </si>
   <si>
     <t>Низкий риск, необходимо
@@ -143,6 +126,18 @@
   </si>
   <si>
     <t>Источник опасности</t>
+  </si>
+  <si>
+    <t>№ опасности</t>
+  </si>
+  <si>
+    <t>№ опасного события</t>
+  </si>
+  <si>
+    <t>Незначительный риск</t>
+  </si>
+  <si>
+    <t>Критический риск</t>
   </si>
 </sst>
 </file>
@@ -1915,7 +1910,7 @@
   <dimension ref="A1:AMJ36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:AJ15"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2097,15 +2092,15 @@
         <v>7</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D13" s="34"/>
       <c r="E13" s="34"/>
       <c r="F13" s="35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G13" s="35"/>
       <c r="H13" s="35"/>
@@ -2113,53 +2108,53 @@
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
       <c r="L13" s="34" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="M13" s="34"/>
       <c r="N13" s="34"/>
       <c r="O13" s="35" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="P13" s="35"/>
       <c r="Q13" s="35"/>
       <c r="R13" s="35" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="S13" s="35"/>
       <c r="T13" s="35" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="U13" s="35"/>
       <c r="V13" s="35"/>
       <c r="W13" s="35"/>
       <c r="X13" s="35" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Y13" s="35"/>
       <c r="Z13" s="35"/>
       <c r="AA13" s="36" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB13" s="36"/>
       <c r="AC13" s="36"/>
       <c r="AD13" s="35" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AE13" s="35"/>
       <c r="AF13" s="35"/>
       <c r="AG13" s="35" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="AH13" s="35"/>
       <c r="AI13" s="37" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AJ13" s="37"/>
       <c r="AMJ13"/>
     </row>
     <row r="14" spans="1:1024" s="5" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B14" s="18">
         <v>2</v>
@@ -2338,9 +2333,7 @@
       <c r="AMJ17"/>
     </row>
     <row r="18" spans="1:1024" s="7" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
-        <v>22</v>
-      </c>
+      <c r="A18" s="13"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="11"/>
@@ -2380,7 +2373,7 @@
     <row r="19" spans="1:1024" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="20" spans="1:1024" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -2406,7 +2399,7 @@
     </row>
     <row r="23" spans="1:1024" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E23" s="21" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F23" s="21"/>
       <c r="G23" s="21"/>
@@ -2456,7 +2449,7 @@
     </row>
     <row r="27" spans="1:1024" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E27" s="21" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
@@ -2506,7 +2499,7 @@
     </row>
     <row r="31" spans="1:1024" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E31" s="21" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
@@ -2556,7 +2549,7 @@
     </row>
     <row r="35" spans="5:1024" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E35" s="21" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F35" s="21"/>
       <c r="G35" s="21"/>
@@ -2640,22 +2633,22 @@
   <sheetData>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="Q2" s="15" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="R2" s="15" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="S2" s="15" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="T2" s="15" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="14"/>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="Q3">
         <v>97</v>
@@ -2669,7 +2662,7 @@
     </row>
     <row r="4" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B4" s="16">
         <f>S21/T26</f>
@@ -2678,7 +2671,7 @@
     </row>
     <row r="5" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B5" s="16">
         <f>R21/T26</f>
@@ -2696,7 +2689,7 @@
     </row>
     <row r="6" spans="1:20" ht="45" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B6" s="16">
         <f>Q21/T26</f>

--- a/Реестр оцененных опасностей_ИОУПР.xlsx
+++ b/Реестр оцененных опасностей_ИОУПР.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zheny\OneDrive\Desktop\печеня\dev\techoavia-roman-backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB12423-B0DC-461B-8491-8E3503A14BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EEB141-0B23-47F3-B42E-6ABA091A51C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -185,18 +185,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="10">
@@ -332,7 +326,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -401,52 +395,46 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1910,7 +1898,7 @@
   <dimension ref="A1:AMJ36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1958,133 +1946,133 @@
       <c r="AA1" s="2"/>
     </row>
     <row r="2" spans="1:1024" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z2" s="30" t="s">
+      <c r="Z2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="30"/>
-      <c r="AE2" s="30"/>
-      <c r="AF2" s="30"/>
-      <c r="AG2" s="30"/>
-      <c r="AH2" s="30"/>
-      <c r="AI2" s="30"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="37"/>
+      <c r="AI2" s="37"/>
     </row>
     <row r="3" spans="1:1024" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:1024" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AE4" s="30"/>
-      <c r="AF4" s="30"/>
-      <c r="AG4" s="30"/>
-      <c r="AH4" s="30"/>
-      <c r="AI4" s="30"/>
-      <c r="AJ4" s="30"/>
+      <c r="AE4" s="37"/>
+      <c r="AF4" s="37"/>
+      <c r="AG4" s="37"/>
+      <c r="AH4" s="37"/>
+      <c r="AI4" s="37"/>
+      <c r="AJ4" s="37"/>
     </row>
     <row r="5" spans="1:1024" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z5" s="31" t="s">
+      <c r="Z5" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="AA5" s="31"/>
-      <c r="AB5" s="31"/>
-      <c r="AE5" s="31" t="s">
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="35"/>
+      <c r="AE5" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="AF5" s="31"/>
-      <c r="AG5" s="31"/>
-      <c r="AH5" s="31"/>
-      <c r="AI5" s="31"/>
-      <c r="AJ5" s="31"/>
+      <c r="AF5" s="35"/>
+      <c r="AG5" s="35"/>
+      <c r="AH5" s="35"/>
+      <c r="AI5" s="35"/>
+      <c r="AJ5" s="35"/>
     </row>
     <row r="6" spans="1:1024" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:1024" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AH7" s="31" t="s">
+      <c r="AH7" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="AI7" s="31"/>
-      <c r="AJ7" s="31"/>
+      <c r="AI7" s="35"/>
+      <c r="AJ7" s="35"/>
     </row>
     <row r="8" spans="1:1024" ht="41.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G8" s="32" t="s">
+      <c r="G8" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="32"/>
-      <c r="S8" s="32"/>
-      <c r="T8" s="32"/>
-      <c r="U8" s="32"/>
-      <c r="V8" s="32"/>
-      <c r="W8" s="32"/>
-      <c r="X8" s="32"/>
-      <c r="Y8" s="32"/>
-      <c r="Z8" s="32"/>
-      <c r="AA8" s="32"/>
-      <c r="AB8" s="32"/>
-      <c r="AC8" s="32"/>
-      <c r="AD8" s="32"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="33"/>
+      <c r="Z8" s="33"/>
+      <c r="AA8" s="33"/>
+      <c r="AB8" s="33"/>
+      <c r="AC8" s="33"/>
+      <c r="AD8" s="33"/>
     </row>
     <row r="9" spans="1:1024" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:1024" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="33"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="33"/>
-      <c r="U10" s="33"/>
-      <c r="V10" s="33"/>
-      <c r="W10" s="33"/>
-      <c r="X10" s="33"/>
-      <c r="Y10" s="33"/>
-      <c r="Z10" s="33"/>
-      <c r="AA10" s="33"/>
-      <c r="AB10" s="33"/>
-      <c r="AC10" s="33"/>
-      <c r="AD10" s="33"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="34"/>
+      <c r="U10" s="34"/>
+      <c r="V10" s="34"/>
+      <c r="W10" s="34"/>
+      <c r="X10" s="34"/>
+      <c r="Y10" s="34"/>
+      <c r="Z10" s="34"/>
+      <c r="AA10" s="34"/>
+      <c r="AB10" s="34"/>
+      <c r="AC10" s="34"/>
+      <c r="AD10" s="34"/>
     </row>
     <row r="11" spans="1:1024" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G11" s="31" t="s">
+      <c r="G11" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="31"/>
-      <c r="S11" s="31"/>
-      <c r="T11" s="31"/>
-      <c r="U11" s="31"/>
-      <c r="V11" s="31"/>
-      <c r="W11" s="31"/>
-      <c r="X11" s="31"/>
-      <c r="Y11" s="31"/>
-      <c r="Z11" s="31"/>
-      <c r="AA11" s="31"/>
-      <c r="AB11" s="31"/>
-      <c r="AC11" s="31"/>
-      <c r="AD11" s="31"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="35"/>
+      <c r="U11" s="35"/>
+      <c r="V11" s="35"/>
+      <c r="W11" s="35"/>
+      <c r="X11" s="35"/>
+      <c r="Y11" s="35"/>
+      <c r="Z11" s="35"/>
+      <c r="AA11" s="35"/>
+      <c r="AB11" s="35"/>
+      <c r="AC11" s="35"/>
+      <c r="AD11" s="35"/>
     </row>
     <row r="12" spans="1:1024" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:1024" s="3" customFormat="1" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2094,62 +2082,62 @@
       <c r="B13" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="35" t="s">
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="34" t="s">
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="35" t="s">
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="35" t="s">
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="S13" s="35"/>
-      <c r="T13" s="35" t="s">
+      <c r="S13" s="28"/>
+      <c r="T13" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="U13" s="35"/>
-      <c r="V13" s="35"/>
-      <c r="W13" s="35"/>
-      <c r="X13" s="35" t="s">
+      <c r="U13" s="28"/>
+      <c r="V13" s="28"/>
+      <c r="W13" s="28"/>
+      <c r="X13" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="Y13" s="35"/>
-      <c r="Z13" s="35"/>
-      <c r="AA13" s="36" t="s">
+      <c r="Y13" s="28"/>
+      <c r="Z13" s="28"/>
+      <c r="AA13" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="AB13" s="36"/>
-      <c r="AC13" s="36"/>
-      <c r="AD13" s="35" t="s">
+      <c r="AB13" s="38"/>
+      <c r="AC13" s="38"/>
+      <c r="AD13" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="AE13" s="35"/>
-      <c r="AF13" s="35"/>
-      <c r="AG13" s="35" t="s">
+      <c r="AE13" s="28"/>
+      <c r="AF13" s="28"/>
+      <c r="AG13" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="AH13" s="35"/>
-      <c r="AI13" s="37" t="s">
+      <c r="AH13" s="28"/>
+      <c r="AI13" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="AJ13" s="37"/>
+      <c r="AJ13" s="29"/>
       <c r="AMJ13"/>
     </row>
     <row r="14" spans="1:1024" s="5" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2159,139 +2147,139 @@
       <c r="B14" s="18">
         <v>2</v>
       </c>
-      <c r="C14" s="38">
+      <c r="C14" s="30">
         <v>3</v>
       </c>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="40">
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="32">
         <v>4</v>
       </c>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="38">
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="30">
         <v>5</v>
       </c>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38">
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30">
         <v>6</v>
       </c>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="38">
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30">
         <v>7</v>
       </c>
-      <c r="S14" s="38"/>
-      <c r="T14" s="38">
+      <c r="S14" s="30"/>
+      <c r="T14" s="30">
         <v>8</v>
       </c>
-      <c r="U14" s="38"/>
-      <c r="V14" s="38"/>
-      <c r="W14" s="38"/>
-      <c r="X14" s="38">
+      <c r="U14" s="30"/>
+      <c r="V14" s="30"/>
+      <c r="W14" s="30"/>
+      <c r="X14" s="30">
         <v>9</v>
       </c>
-      <c r="Y14" s="38"/>
-      <c r="Z14" s="38"/>
-      <c r="AA14" s="41">
+      <c r="Y14" s="30"/>
+      <c r="Z14" s="30"/>
+      <c r="AA14" s="39">
         <v>10</v>
       </c>
-      <c r="AB14" s="41"/>
-      <c r="AC14" s="41"/>
-      <c r="AD14" s="38">
+      <c r="AB14" s="39"/>
+      <c r="AC14" s="39"/>
+      <c r="AD14" s="30">
         <v>11</v>
       </c>
-      <c r="AE14" s="38"/>
-      <c r="AF14" s="38"/>
-      <c r="AG14" s="38">
+      <c r="AE14" s="30"/>
+      <c r="AF14" s="30"/>
+      <c r="AG14" s="30">
         <v>12</v>
       </c>
-      <c r="AH14" s="38"/>
-      <c r="AI14" s="39">
+      <c r="AH14" s="30"/>
+      <c r="AI14" s="31">
         <v>13</v>
       </c>
-      <c r="AJ14" s="39"/>
+      <c r="AJ14" s="31"/>
       <c r="AMJ14"/>
     </row>
     <row r="15" spans="1:1024" s="23" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="27"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="27"/>
-      <c r="U15" s="27"/>
-      <c r="V15" s="27"/>
-      <c r="W15" s="27"/>
-      <c r="X15" s="27"/>
-      <c r="Y15" s="27"/>
-      <c r="Z15" s="27"/>
-      <c r="AA15" s="28"/>
-      <c r="AB15" s="28"/>
-      <c r="AC15" s="29"/>
-      <c r="AD15" s="27"/>
-      <c r="AE15" s="27"/>
-      <c r="AF15" s="27"/>
-      <c r="AG15" s="27"/>
-      <c r="AH15" s="27"/>
-      <c r="AI15" s="27"/>
-      <c r="AJ15" s="27"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="26"/>
+      <c r="X15" s="26"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="26"/>
+      <c r="AA15" s="27"/>
+      <c r="AB15" s="27"/>
+      <c r="AC15" s="27"/>
+      <c r="AD15" s="26"/>
+      <c r="AE15" s="26"/>
+      <c r="AF15" s="26"/>
+      <c r="AG15" s="26"/>
+      <c r="AH15" s="26"/>
+      <c r="AI15" s="26"/>
+      <c r="AJ15" s="26"/>
     </row>
     <row r="16" spans="1:1024" s="23" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="27"/>
-      <c r="S16" s="27"/>
-      <c r="T16" s="27"/>
-      <c r="U16" s="27"/>
-      <c r="V16" s="27"/>
-      <c r="W16" s="27"/>
-      <c r="X16" s="27"/>
-      <c r="Y16" s="27"/>
-      <c r="Z16" s="27"/>
-      <c r="AA16" s="28"/>
-      <c r="AB16" s="28"/>
-      <c r="AC16" s="29"/>
-      <c r="AD16" s="27"/>
-      <c r="AE16" s="27"/>
-      <c r="AF16" s="27"/>
-      <c r="AG16" s="27"/>
-      <c r="AH16" s="27"/>
-      <c r="AI16" s="27"/>
-      <c r="AJ16" s="27"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="26"/>
+      <c r="W16" s="26"/>
+      <c r="X16" s="26"/>
+      <c r="Y16" s="26"/>
+      <c r="Z16" s="26"/>
+      <c r="AA16" s="27"/>
+      <c r="AB16" s="27"/>
+      <c r="AC16" s="27"/>
+      <c r="AD16" s="26"/>
+      <c r="AE16" s="26"/>
+      <c r="AF16" s="26"/>
+      <c r="AG16" s="26"/>
+      <c r="AH16" s="26"/>
+      <c r="AI16" s="26"/>
+      <c r="AJ16" s="26"/>
     </row>
     <row r="17" spans="1:1024" s="5" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="24"/>
@@ -2322,7 +2310,7 @@
       <c r="Z17" s="24"/>
       <c r="AA17" s="25"/>
       <c r="AB17" s="25"/>
-      <c r="AC17" s="26"/>
+      <c r="AC17" s="25"/>
       <c r="AD17" s="24"/>
       <c r="AE17" s="24"/>
       <c r="AF17" s="24"/>
@@ -2580,6 +2568,23 @@
     <row r="36" spans="5:1024" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="Z2:AI2"/>
+    <mergeCell ref="AE4:AJ4"/>
+    <mergeCell ref="Z5:AB5"/>
+    <mergeCell ref="AE5:AJ5"/>
+    <mergeCell ref="AH7:AJ7"/>
+    <mergeCell ref="G8:AD8"/>
+    <mergeCell ref="G10:AD10"/>
+    <mergeCell ref="G11:AD11"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:K13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="T13:W13"/>
+    <mergeCell ref="X13:Z13"/>
+    <mergeCell ref="AA13:AC13"/>
+    <mergeCell ref="AD13:AF13"/>
     <mergeCell ref="AG13:AH13"/>
     <mergeCell ref="AI13:AJ13"/>
     <mergeCell ref="AG14:AH14"/>
@@ -2593,23 +2598,6 @@
     <mergeCell ref="X14:Z14"/>
     <mergeCell ref="AA14:AC14"/>
     <mergeCell ref="AD14:AF14"/>
-    <mergeCell ref="G8:AD8"/>
-    <mergeCell ref="G10:AD10"/>
-    <mergeCell ref="G11:AD11"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:K13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="T13:W13"/>
-    <mergeCell ref="X13:Z13"/>
-    <mergeCell ref="AA13:AC13"/>
-    <mergeCell ref="AD13:AF13"/>
-    <mergeCell ref="Z2:AI2"/>
-    <mergeCell ref="AE4:AJ4"/>
-    <mergeCell ref="Z5:AB5"/>
-    <mergeCell ref="AE5:AJ5"/>
-    <mergeCell ref="AH7:AJ7"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.39374999999999999" right="0.39374999999999999" top="0.39374999999999999" bottom="0.39374999999999999" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/Реестр оцененных опасностей_ИОУПР.xlsx
+++ b/Реестр оцененных опасностей_ИОУПР.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zheny\OneDrive\Desktop\печеня\dev\techoavia-roman-backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EEB141-0B23-47F3-B42E-6ABA091A51C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1DA9995-7E4F-4570-8B8C-0B3F4A84E8B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="реестр опасностей" sheetId="1" r:id="rId1"/>
     <sheet name="диаграмма для отчета" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'реестр опасностей'!$A$15:$AJ$15</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'реестр опасностей'!$A$1:$AJ$35</definedName>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
   <si>
     <t>УТВЕРЖДАЮ:</t>
   </si>
@@ -96,35 +99,6 @@
     <t>(должность)</t>
   </si>
   <si>
-    <t>Низкий риск, необходимо
-уделить внимание</t>
-  </si>
-  <si>
-    <t>Средний риск, требуются
-меры по снижению
-уровня риска в
-установленные сроки</t>
-  </si>
-  <si>
-    <t>ср</t>
-  </si>
-  <si>
-    <t>низ</t>
-  </si>
-  <si>
-    <t>итог</t>
-  </si>
-  <si>
-    <t>кол-во рисков до</t>
-  </si>
-  <si>
-    <t>незн</t>
-  </si>
-  <si>
-    <t>Незначительный риск,
-меры не требуются</t>
-  </si>
-  <si>
     <t>Источник опасности</t>
   </si>
   <si>
@@ -138,13 +112,72 @@
   </si>
   <si>
     <t>Критический риск</t>
+  </si>
+  <si>
+    <t>Таблица №1</t>
+  </si>
+  <si>
+    <t>Оценка уровня риска</t>
+  </si>
+  <si>
+    <t>количество ненулевых значений из таблицы "Реестр оцененных опасностей предприятия.
+Опасности, действующие на всех работников предприятия"</t>
+  </si>
+  <si>
+    <t>доля уровней рисков , %</t>
+  </si>
+  <si>
+    <t>Общая сумма оценок</t>
+  </si>
+  <si>
+    <t>Таблица №2</t>
+  </si>
+  <si>
+    <t>1. В таблице "Реестр оцененных опасностей предприятия.
+Опасности, действующие на всех работников предприятия"</t>
+  </si>
+  <si>
+    <t>подсчитать количество строк, где  оценены уровни риска и они НЕ равны 0 (нулю)</t>
+  </si>
+  <si>
+    <t>2. Подсчитать количество ненулевых значений по столбцу "Количество"</t>
+  </si>
+  <si>
+    <t>3. Рассчитать долю каждой оценки в общей сумме: для этого разделить количество ненулевых значений по каждому виду оценки на их общее количество (в данном примере, общее количество = 9).</t>
+  </si>
+  <si>
+    <t>Полученной значение выразить в %</t>
+  </si>
+  <si>
+    <t>4. Для построения диаграммы используем значения столбца "Оценка уровней риска" и "Доля уровней рисков,%" (Таблица №2)</t>
+  </si>
+  <si>
+    <t>5. Построить объемную круговую диаграмму</t>
+  </si>
+  <si>
+    <t>6. Цвета указаны в таблице №2</t>
+  </si>
+  <si>
+    <t>7. Вставить название диаграммы "Анализ по оцененным профессиональным рискам"</t>
+  </si>
+  <si>
+    <t>8. Вставить легенду диаграммы разместить справа от диаграммы</t>
+  </si>
+  <si>
+    <t>9. Подписать значения рядов шрифтом и размером, равным названию диаграммы</t>
+  </si>
+  <si>
+    <t>10. Подписать данные в формате "число,число %"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <name val="Arial"/>
@@ -184,16 +217,53 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -322,11 +392,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -367,11 +463,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -401,6 +492,50 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -416,6 +551,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -428,14 +566,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -481,38 +616,26 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr lang="en-US" sz="2160" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  </a:sysClr>
                 </a:solidFill>
+                <a:effectLst/>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Анализ оцененных профессиональных рисков</a:t>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Анализ по оцененным профессиональным рискам</a:t>
             </a:r>
-            <a:endParaRPr lang="ru-RU" sz="1800">
-              <a:effectLst/>
-            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.18812917194799708"/>
-          <c:y val="5.0793650793650794E-2"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -526,13 +649,14 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr lang="en-US" sz="2160" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
-                </a:schemeClr>
+                </a:sysClr>
               </a:solidFill>
+              <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -545,9 +669,10 @@
     <c:autoTitleDeleted val="0"/>
     <c:view3D>
       <c:rotX val="30"/>
-      <c:rotY val="30"/>
+      <c:rotY val="0"/>
       <c:depthPercent val="100"/>
       <c:rAngAx val="0"/>
+      <c:perspective val="20"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -589,199 +714,113 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:explosion val="2"/>
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
+            <c:explosion val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0AA620"/>
+                <a:srgbClr val="92D050"/>
               </a:solidFill>
               <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
+              <a:sp3d/>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-E56D-4AA9-A20A-A4F3568FCE84}"/>
+                <c16:uniqueId val="{00000001-2AD7-413D-80E8-F5E7EF3260CF}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
             <c:bubble3D val="0"/>
+            <c:explosion val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="22F240"/>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
+              <a:sp3d/>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-E56D-4AA9-A20A-A4F3568FCE84}"/>
+                <c16:uniqueId val="{00000003-2AD7-413D-80E8-F5E7EF3260CF}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
             <c:bubble3D val="0"/>
+            <c:explosion val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FFFF00"/>
               </a:solidFill>
               <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
+              <a:sp3d/>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-BBFA-4BC4-AA5A-C1949A66EE81}"/>
+                <c16:uniqueId val="{00000005-2AD7-413D-80E8-F5E7EF3260CF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:explosion val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-2AD7-413D-80E8-F5E7EF3260CF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:explosion val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-2AD7-413D-80E8-F5E7EF3260CF}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-1.7278452481629382E-2"/>
-                  <c:y val="-4.8144381952256017E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{D73D956A-38FB-42BE-851A-900DFC8686EF}" type="VALUE">
-                      <a:rPr lang="en-US" sz="1200" b="1"/>
-                      <a:pPr/>
-                      <a:t>[ЗНАЧЕНИЕ]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="ru-RU"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-E56D-4AA9-A20A-A4F3568FCE84}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-5.4718825806536767E-2"/>
-                  <c:y val="0.21149316335458068"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{D5C636DD-499D-4361-997C-7CFD25A44193}" type="VALUE">
-                      <a:rPr lang="en-US" sz="1200" b="1"/>
-                      <a:pPr/>
-                      <a:t>[ЗНАЧЕНИЕ]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="ru-RU"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-E56D-4AA9-A20A-A4F3568FCE84}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="3.7176795036162211E-2"/>
-                  <c:y val="-0.11196720409948756"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{CD533F1C-A38D-4A12-A8D0-2D602A1B2034}" type="VALUE">
-                      <a:rPr lang="en-US" sz="1200" b="1"/>
-                      <a:pPr/>
-                      <a:t>[ЗНАЧЕНИЕ]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="ru-RU"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-BBFA-4BC4-AA5A-C1949A66EE81}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -796,13 +835,14 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
                     </a:solidFill>
+                    <a:effectLst/>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
@@ -838,48 +878,74 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
-              <c:f>'диаграмма для отчета'!$A$4:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Незначительный риск,
-меры не требуются</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Низкий риск, необходимо
-уделить внимание</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Средний риск, требуются
-меры по снижению
-уровня риска в
-установленные сроки</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:multiLvlStrRef>
+              <c:f>'[1]диаграмма для отчета'!$A$13:$B$17</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="5"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>11,11111111</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>44,44444444</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>44,44444444</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Незначительный риск</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Низкий риск</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Средний риск</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Высокий риск</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Критический риск</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'диаграмма для отчета'!$B$4:$B$6</c:f>
+              <c:f>'[1]диаграмма для отчета'!$B$13:$B$17</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3.8461538461538464E-2</c:v>
+                  <c:v>11.111111111111111</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.30769230769230771</c:v>
+                  <c:v>44.444444444444443</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.65384615384615385</c:v>
+                  <c:v>44.444444444444443</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E56D-4AA9-A20A-A4F3568FCE84}"/>
+              <c16:uniqueId val="{0000000A-2AD7-413D-80E8-F5E7EF3260CF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -903,62 +969,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:legendEntry>
-        <c:idx val="0"/>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="1"/>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.77737601281337976"/>
-          <c:y val="0.27281149856267972"/>
-          <c:w val="0.2123610001644502"/>
-          <c:h val="0.5384150981127358"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -972,13 +982,14 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
-                </a:schemeClr>
+                </a:sysClr>
               </a:solidFill>
+              <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -1019,7 +1030,18 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:sysClr>
+          </a:solidFill>
+          <a:effectLst/>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="ru-RU"/>
     </a:p>
@@ -1595,27 +1617,29 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>147636</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1">
+        <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{641CE07A-0A59-4AE6-87A2-F68DC51F89A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EB1F739-1B46-4C40-8871-83F6A81787A9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1630,6 +1654,66 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="исходный_реестр опасностей"/>
+      <sheetName val="пересчет_реестр опасностей"/>
+      <sheetName val="таблица для построения диаграмм"/>
+      <sheetName val="диаграмма для отчета"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3">
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>Незначительный риск</v>
+          </cell>
+          <cell r="B13">
+            <v>11.111111111111111</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>Низкий риск</v>
+          </cell>
+          <cell r="B14">
+            <v>44.444444444444443</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>Средний риск</v>
+          </cell>
+          <cell r="B15">
+            <v>44.444444444444443</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>Высокий риск</v>
+          </cell>
+          <cell r="B16">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>Критический риск</v>
+          </cell>
+          <cell r="B17">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1897,7 +1981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
@@ -1946,378 +2030,378 @@
       <c r="AA1" s="2"/>
     </row>
     <row r="2" spans="1:1024" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z2" s="37" t="s">
+      <c r="Z2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="AA2" s="37"/>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="37"/>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="37"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="37"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
     </row>
     <row r="3" spans="1:1024" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:1024" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AE4" s="37"/>
-      <c r="AF4" s="37"/>
-      <c r="AG4" s="37"/>
-      <c r="AH4" s="37"/>
-      <c r="AI4" s="37"/>
-      <c r="AJ4" s="37"/>
+      <c r="AE4" s="52"/>
+      <c r="AF4" s="52"/>
+      <c r="AG4" s="52"/>
+      <c r="AH4" s="52"/>
+      <c r="AI4" s="52"/>
+      <c r="AJ4" s="52"/>
     </row>
     <row r="5" spans="1:1024" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z5" s="35" t="s">
+      <c r="Z5" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="AA5" s="35"/>
-      <c r="AB5" s="35"/>
-      <c r="AE5" s="35" t="s">
+      <c r="AA5" s="49"/>
+      <c r="AB5" s="49"/>
+      <c r="AE5" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="AF5" s="35"/>
-      <c r="AG5" s="35"/>
-      <c r="AH5" s="35"/>
-      <c r="AI5" s="35"/>
-      <c r="AJ5" s="35"/>
+      <c r="AF5" s="49"/>
+      <c r="AG5" s="49"/>
+      <c r="AH5" s="49"/>
+      <c r="AI5" s="49"/>
+      <c r="AJ5" s="49"/>
     </row>
     <row r="6" spans="1:1024" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:1024" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AH7" s="35" t="s">
+      <c r="AH7" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="AI7" s="35"/>
-      <c r="AJ7" s="35"/>
+      <c r="AI7" s="49"/>
+      <c r="AJ7" s="49"/>
     </row>
     <row r="8" spans="1:1024" ht="41.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G8" s="33" t="s">
+      <c r="G8" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="33"/>
-      <c r="S8" s="33"/>
-      <c r="T8" s="33"/>
-      <c r="U8" s="33"/>
-      <c r="V8" s="33"/>
-      <c r="W8" s="33"/>
-      <c r="X8" s="33"/>
-      <c r="Y8" s="33"/>
-      <c r="Z8" s="33"/>
-      <c r="AA8" s="33"/>
-      <c r="AB8" s="33"/>
-      <c r="AC8" s="33"/>
-      <c r="AD8" s="33"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="47"/>
+      <c r="S8" s="47"/>
+      <c r="T8" s="47"/>
+      <c r="U8" s="47"/>
+      <c r="V8" s="47"/>
+      <c r="W8" s="47"/>
+      <c r="X8" s="47"/>
+      <c r="Y8" s="47"/>
+      <c r="Z8" s="47"/>
+      <c r="AA8" s="47"/>
+      <c r="AB8" s="47"/>
+      <c r="AC8" s="47"/>
+      <c r="AD8" s="47"/>
     </row>
     <row r="9" spans="1:1024" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:1024" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="34"/>
-      <c r="U10" s="34"/>
-      <c r="V10" s="34"/>
-      <c r="W10" s="34"/>
-      <c r="X10" s="34"/>
-      <c r="Y10" s="34"/>
-      <c r="Z10" s="34"/>
-      <c r="AA10" s="34"/>
-      <c r="AB10" s="34"/>
-      <c r="AC10" s="34"/>
-      <c r="AD10" s="34"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="48"/>
+      <c r="Q10" s="48"/>
+      <c r="R10" s="48"/>
+      <c r="S10" s="48"/>
+      <c r="T10" s="48"/>
+      <c r="U10" s="48"/>
+      <c r="V10" s="48"/>
+      <c r="W10" s="48"/>
+      <c r="X10" s="48"/>
+      <c r="Y10" s="48"/>
+      <c r="Z10" s="48"/>
+      <c r="AA10" s="48"/>
+      <c r="AB10" s="48"/>
+      <c r="AC10" s="48"/>
+      <c r="AD10" s="48"/>
     </row>
     <row r="11" spans="1:1024" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G11" s="35" t="s">
+      <c r="G11" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="35"/>
-      <c r="S11" s="35"/>
-      <c r="T11" s="35"/>
-      <c r="U11" s="35"/>
-      <c r="V11" s="35"/>
-      <c r="W11" s="35"/>
-      <c r="X11" s="35"/>
-      <c r="Y11" s="35"/>
-      <c r="Z11" s="35"/>
-      <c r="AA11" s="35"/>
-      <c r="AB11" s="35"/>
-      <c r="AC11" s="35"/>
-      <c r="AD11" s="35"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="49"/>
+      <c r="S11" s="49"/>
+      <c r="T11" s="49"/>
+      <c r="U11" s="49"/>
+      <c r="V11" s="49"/>
+      <c r="W11" s="49"/>
+      <c r="X11" s="49"/>
+      <c r="Y11" s="49"/>
+      <c r="Z11" s="49"/>
+      <c r="AA11" s="49"/>
+      <c r="AB11" s="49"/>
+      <c r="AC11" s="49"/>
+      <c r="AD11" s="49"/>
     </row>
     <row r="12" spans="1:1024" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:1024" s="3" customFormat="1" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="28" t="s">
+      <c r="B13" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="28" t="s">
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="28" t="s">
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="S13" s="28"/>
-      <c r="T13" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="U13" s="28"/>
-      <c r="V13" s="28"/>
-      <c r="W13" s="28"/>
-      <c r="X13" s="28" t="s">
+      <c r="S13" s="41"/>
+      <c r="T13" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="U13" s="41"/>
+      <c r="V13" s="41"/>
+      <c r="W13" s="41"/>
+      <c r="X13" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="Y13" s="28"/>
-      <c r="Z13" s="28"/>
-      <c r="AA13" s="38" t="s">
+      <c r="Y13" s="41"/>
+      <c r="Z13" s="41"/>
+      <c r="AA13" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="AB13" s="38"/>
-      <c r="AC13" s="38"/>
-      <c r="AD13" s="28" t="s">
+      <c r="AB13" s="51"/>
+      <c r="AC13" s="51"/>
+      <c r="AD13" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="AE13" s="28"/>
-      <c r="AF13" s="28"/>
-      <c r="AG13" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="AH13" s="28"/>
-      <c r="AI13" s="29" t="s">
+      <c r="AE13" s="41"/>
+      <c r="AF13" s="41"/>
+      <c r="AG13" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH13" s="41"/>
+      <c r="AI13" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="AJ13" s="29"/>
+      <c r="AJ13" s="42"/>
       <c r="AMJ13"/>
     </row>
     <row r="14" spans="1:1024" s="5" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="15">
         <v>2</v>
       </c>
-      <c r="C14" s="30">
+      <c r="C14" s="43">
         <v>3</v>
       </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="32">
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="45">
         <v>4</v>
       </c>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="30">
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="43">
         <v>5</v>
       </c>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30">
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="43">
         <v>6</v>
       </c>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30">
+      <c r="P14" s="43"/>
+      <c r="Q14" s="43"/>
+      <c r="R14" s="43">
         <v>7</v>
       </c>
-      <c r="S14" s="30"/>
-      <c r="T14" s="30">
+      <c r="S14" s="43"/>
+      <c r="T14" s="43">
         <v>8</v>
       </c>
-      <c r="U14" s="30"/>
-      <c r="V14" s="30"/>
-      <c r="W14" s="30"/>
-      <c r="X14" s="30">
+      <c r="U14" s="43"/>
+      <c r="V14" s="43"/>
+      <c r="W14" s="43"/>
+      <c r="X14" s="43">
         <v>9</v>
       </c>
-      <c r="Y14" s="30"/>
-      <c r="Z14" s="30"/>
-      <c r="AA14" s="39">
+      <c r="Y14" s="43"/>
+      <c r="Z14" s="43"/>
+      <c r="AA14" s="46">
         <v>10</v>
       </c>
-      <c r="AB14" s="39"/>
-      <c r="AC14" s="39"/>
-      <c r="AD14" s="30">
+      <c r="AB14" s="46"/>
+      <c r="AC14" s="46"/>
+      <c r="AD14" s="43">
         <v>11</v>
       </c>
-      <c r="AE14" s="30"/>
-      <c r="AF14" s="30"/>
-      <c r="AG14" s="30">
+      <c r="AE14" s="43"/>
+      <c r="AF14" s="43"/>
+      <c r="AG14" s="43">
         <v>12</v>
       </c>
-      <c r="AH14" s="30"/>
-      <c r="AI14" s="31">
+      <c r="AH14" s="43"/>
+      <c r="AI14" s="44">
         <v>13</v>
       </c>
-      <c r="AJ14" s="31"/>
+      <c r="AJ14" s="44"/>
       <c r="AMJ14"/>
     </row>
-    <row r="15" spans="1:1024" s="23" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="26"/>
-      <c r="T15" s="26"/>
-      <c r="U15" s="26"/>
-      <c r="V15" s="26"/>
-      <c r="W15" s="26"/>
-      <c r="X15" s="26"/>
-      <c r="Y15" s="26"/>
-      <c r="Z15" s="26"/>
-      <c r="AA15" s="27"/>
-      <c r="AB15" s="27"/>
-      <c r="AC15" s="27"/>
-      <c r="AD15" s="26"/>
-      <c r="AE15" s="26"/>
-      <c r="AF15" s="26"/>
-      <c r="AG15" s="26"/>
-      <c r="AH15" s="26"/>
-      <c r="AI15" s="26"/>
-      <c r="AJ15" s="26"/>
-    </row>
-    <row r="16" spans="1:1024" s="23" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="26"/>
-      <c r="S16" s="26"/>
-      <c r="T16" s="26"/>
-      <c r="U16" s="26"/>
-      <c r="V16" s="26"/>
-      <c r="W16" s="26"/>
-      <c r="X16" s="26"/>
-      <c r="Y16" s="26"/>
-      <c r="Z16" s="26"/>
-      <c r="AA16" s="27"/>
-      <c r="AB16" s="27"/>
-      <c r="AC16" s="27"/>
-      <c r="AD16" s="26"/>
-      <c r="AE16" s="26"/>
-      <c r="AF16" s="26"/>
-      <c r="AG16" s="26"/>
-      <c r="AH16" s="26"/>
-      <c r="AI16" s="26"/>
-      <c r="AJ16" s="26"/>
+    <row r="15" spans="1:1024" s="20" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="23"/>
+      <c r="W15" s="23"/>
+      <c r="X15" s="23"/>
+      <c r="Y15" s="23"/>
+      <c r="Z15" s="23"/>
+      <c r="AA15" s="24"/>
+      <c r="AB15" s="24"/>
+      <c r="AC15" s="24"/>
+      <c r="AD15" s="23"/>
+      <c r="AE15" s="23"/>
+      <c r="AF15" s="23"/>
+      <c r="AG15" s="23"/>
+      <c r="AH15" s="23"/>
+      <c r="AI15" s="23"/>
+      <c r="AJ15" s="23"/>
+    </row>
+    <row r="16" spans="1:1024" s="20" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="23"/>
+      <c r="W16" s="23"/>
+      <c r="X16" s="23"/>
+      <c r="Y16" s="23"/>
+      <c r="Z16" s="23"/>
+      <c r="AA16" s="24"/>
+      <c r="AB16" s="24"/>
+      <c r="AC16" s="24"/>
+      <c r="AD16" s="23"/>
+      <c r="AE16" s="23"/>
+      <c r="AF16" s="23"/>
+      <c r="AG16" s="23"/>
+      <c r="AH16" s="23"/>
+      <c r="AI16" s="23"/>
+      <c r="AJ16" s="23"/>
     </row>
     <row r="17" spans="1:1024" s="5" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="24"/>
-      <c r="T17" s="24"/>
-      <c r="U17" s="24"/>
-      <c r="V17" s="24"/>
-      <c r="W17" s="24"/>
-      <c r="X17" s="24"/>
-      <c r="Y17" s="24"/>
-      <c r="Z17" s="24"/>
-      <c r="AA17" s="25"/>
-      <c r="AB17" s="25"/>
-      <c r="AC17" s="25"/>
-      <c r="AD17" s="24"/>
-      <c r="AE17" s="24"/>
-      <c r="AF17" s="24"/>
-      <c r="AG17" s="24"/>
-      <c r="AH17" s="24"/>
-      <c r="AI17" s="24"/>
-      <c r="AJ17" s="24"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="21"/>
+      <c r="W17" s="21"/>
+      <c r="X17" s="21"/>
+      <c r="Y17" s="21"/>
+      <c r="Z17" s="21"/>
+      <c r="AA17" s="22"/>
+      <c r="AB17" s="22"/>
+      <c r="AC17" s="22"/>
+      <c r="AD17" s="21"/>
+      <c r="AE17" s="21"/>
+      <c r="AF17" s="21"/>
+      <c r="AG17" s="21"/>
+      <c r="AH17" s="21"/>
+      <c r="AI17" s="21"/>
+      <c r="AJ17" s="21"/>
       <c r="AMJ17"/>
     </row>
     <row r="18" spans="1:1024" s="7" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2370,200 +2454,200 @@
       <c r="AMJ21"/>
     </row>
     <row r="22" spans="1:1024" s="7" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="20"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
       <c r="AMJ22"/>
     </row>
     <row r="23" spans="1:1024" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E23" s="21" t="s">
+      <c r="E23" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="N23" s="22" t="s">
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="N23" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="22"/>
-      <c r="U23" s="21" t="s">
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="U23" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="V23" s="21"/>
-      <c r="Z23" s="21" t="s">
+      <c r="V23" s="18"/>
+      <c r="Z23" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="AA23" s="21"/>
-      <c r="AB23" s="21"/>
-      <c r="AC23" s="21"/>
-      <c r="AD23" s="21"/>
+      <c r="AA23" s="18"/>
+      <c r="AB23" s="18"/>
+      <c r="AC23" s="18"/>
+      <c r="AD23" s="18"/>
     </row>
     <row r="24" spans="1:1024" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="25" spans="1:1024" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AMJ25"/>
     </row>
     <row r="26" spans="1:1024" s="7" customFormat="1" ht="60.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="20"/>
-      <c r="R26" s="20"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17"/>
       <c r="AMJ26"/>
     </row>
     <row r="27" spans="1:1024" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E27" s="21" t="s">
+      <c r="E27" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="N27" s="22" t="s">
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="N27" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="O27" s="22"/>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="22"/>
-      <c r="R27" s="22"/>
-      <c r="U27" s="21" t="s">
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="U27" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="V27" s="21"/>
-      <c r="Z27" s="21" t="s">
+      <c r="V27" s="18"/>
+      <c r="Z27" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="AA27" s="21"/>
-      <c r="AB27" s="21"/>
-      <c r="AC27" s="21"/>
-      <c r="AD27" s="21"/>
+      <c r="AA27" s="18"/>
+      <c r="AB27" s="18"/>
+      <c r="AC27" s="18"/>
+      <c r="AD27" s="18"/>
     </row>
     <row r="28" spans="1:1024" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="29" spans="1:1024" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AMJ29"/>
     </row>
     <row r="30" spans="1:1024" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="20"/>
-      <c r="Q30" s="20"/>
-      <c r="R30" s="20"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="17"/>
       <c r="AMJ30"/>
     </row>
     <row r="31" spans="1:1024" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E31" s="21" t="s">
+      <c r="E31" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="N31" s="22" t="s">
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="N31" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="O31" s="22"/>
-      <c r="P31" s="22"/>
-      <c r="Q31" s="22"/>
-      <c r="R31" s="22"/>
-      <c r="U31" s="21" t="s">
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="U31" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="V31" s="21"/>
-      <c r="Z31" s="21" t="s">
+      <c r="V31" s="18"/>
+      <c r="Z31" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="AA31" s="21"/>
-      <c r="AB31" s="21"/>
-      <c r="AC31" s="21"/>
-      <c r="AD31" s="21"/>
+      <c r="AA31" s="18"/>
+      <c r="AB31" s="18"/>
+      <c r="AC31" s="18"/>
+      <c r="AD31" s="18"/>
     </row>
     <row r="32" spans="1:1024" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" spans="5:1024" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AMJ33"/>
     </row>
     <row r="34" spans="5:1024" s="7" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
-      <c r="N34" s="20"/>
-      <c r="O34" s="20"/>
-      <c r="P34" s="20"/>
-      <c r="Q34" s="20"/>
-      <c r="R34" s="20"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="17"/>
       <c r="AMJ34"/>
     </row>
     <row r="35" spans="5:1024" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E35" s="21" t="s">
+      <c r="E35" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="21"/>
-      <c r="N35" s="22" t="s">
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+      <c r="N35" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="O35" s="22"/>
-      <c r="P35" s="22"/>
-      <c r="Q35" s="22"/>
-      <c r="R35" s="22"/>
-      <c r="U35" s="21" t="s">
+      <c r="O35" s="19"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="19"/>
+      <c r="U35" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="V35" s="21"/>
-      <c r="Z35" s="21" t="s">
+      <c r="V35" s="18"/>
+      <c r="Z35" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="AA35" s="21"/>
-      <c r="AB35" s="21"/>
-      <c r="AC35" s="21"/>
-      <c r="AD35" s="21"/>
+      <c r="AA35" s="18"/>
+      <c r="AB35" s="18"/>
+      <c r="AC35" s="18"/>
+      <c r="AD35" s="18"/>
     </row>
     <row r="36" spans="5:1024" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
@@ -2607,256 +2691,252 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25ECD3D4-4F2F-492B-A7B7-07C1954388F5}">
-  <dimension ref="A2:T26"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.83203125" customWidth="1"/>
-    <col min="2" max="4" width="18.5" customWidth="1"/>
+    <col min="1" max="1" width="33.6640625" customWidth="1"/>
+    <col min="2" max="4" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="Q2" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="R2" s="15" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="101.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="15" t="s">
+      <c r="B3" s="27">
+        <v>0</v>
+      </c>
+      <c r="C3" s="28" t="e">
+        <f>100*B3/$B$8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="30">
+        <v>0</v>
+      </c>
+      <c r="C4" s="28" t="e">
+        <f t="shared" ref="C4:C7" si="0">100*B4/$B$8</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="30">
+        <v>0</v>
+      </c>
+      <c r="C5" s="28" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="30">
+        <v>0</v>
+      </c>
+      <c r="C6" s="28" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="30">
+        <v>0</v>
+      </c>
+      <c r="C7" s="28" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8">
+        <f>SUM(B3:B7)</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="32"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="33"/>
+      <c r="C9" s="32"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="33"/>
+      <c r="C10" s="32"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="T2" s="15" t="s">
+      <c r="B12" s="25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="28" t="e">
+        <f>C3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="37" t="e">
+        <f>C4</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="37" t="e">
+        <f>C5</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="37" t="e">
+        <f>C6</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="40" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" s="14"/>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q3">
-        <v>97</v>
-      </c>
-      <c r="R3">
-        <v>56</v>
-      </c>
-      <c r="T3">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="16">
-        <f>S21/T26</f>
-        <v>3.8461538461538464E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="16">
-        <f>R21/T26</f>
-        <v>0.30769230769230771</v>
-      </c>
-      <c r="Q5">
-        <v>65</v>
-      </c>
-      <c r="R5">
-        <v>153</v>
-      </c>
-      <c r="T5">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="45" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="16">
-        <f>Q21/T26</f>
-        <v>0.65384615384615385</v>
-      </c>
-      <c r="Q6">
-        <v>3</v>
-      </c>
-      <c r="R6">
-        <v>153</v>
-      </c>
-      <c r="T6">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="Q7">
-        <v>48</v>
-      </c>
-      <c r="R7">
-        <v>153</v>
-      </c>
-      <c r="T7">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="Q8">
-        <v>74</v>
-      </c>
-      <c r="R8">
-        <v>69</v>
-      </c>
-      <c r="T8">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="Q9">
-        <v>3</v>
-      </c>
-      <c r="R9">
-        <v>69</v>
-      </c>
-      <c r="T9">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="Q10">
-        <v>69</v>
-      </c>
-      <c r="R10">
-        <v>52</v>
-      </c>
-      <c r="T10">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="Q11">
-        <v>69</v>
-      </c>
-      <c r="R11">
-        <v>9</v>
-      </c>
-      <c r="T11">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="Q12">
-        <v>2</v>
-      </c>
-      <c r="T12">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="Q13">
-        <v>52</v>
-      </c>
-      <c r="T13">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="Q14">
+      <c r="B17" s="37" t="e">
+        <f>C7</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="31"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="33"/>
+      <c r="C19" s="32"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>37</v>
       </c>
-      <c r="T14">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="Q15">
-        <v>46</v>
-      </c>
-      <c r="T15">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="Q16">
-        <v>12</v>
-      </c>
-      <c r="T16">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="17:20" x14ac:dyDescent="0.2">
-      <c r="Q17">
-        <v>12</v>
-      </c>
-      <c r="T17">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="17:20" x14ac:dyDescent="0.2">
-      <c r="Q18">
-        <v>13</v>
-      </c>
-      <c r="T18">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="17:20" x14ac:dyDescent="0.2">
-      <c r="Q19">
-        <v>7</v>
-      </c>
-      <c r="T19">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="17:20" x14ac:dyDescent="0.2">
-      <c r="Q20">
-        <v>1</v>
-      </c>
-      <c r="T20">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="17:20" x14ac:dyDescent="0.2">
-      <c r="Q21">
-        <v>17</v>
-      </c>
-      <c r="R21">
-        <v>8</v>
-      </c>
-      <c r="S21">
-        <v>1</v>
-      </c>
-      <c r="T21">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="17:20" x14ac:dyDescent="0.2">
-      <c r="T22">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="17:20" x14ac:dyDescent="0.2">
-      <c r="T23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="17:20" x14ac:dyDescent="0.2">
-      <c r="T24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="17:20" x14ac:dyDescent="0.2">
-      <c r="T25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="17:20" x14ac:dyDescent="0.2">
-      <c r="T26">
-        <v>26</v>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Реестр оцененных опасностей_ИОУПР.xlsx
+++ b/Реестр оцененных опасностей_ИОУПР.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zheny\OneDrive\Desktop\печеня\dev\techoavia-roman-backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1DA9995-7E4F-4570-8B8C-0B3F4A84E8B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11608512-BAA9-4526-837E-0FF283C76686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -536,9 +536,27 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -553,24 +571,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2030,133 +2030,133 @@
       <c r="AA1" s="2"/>
     </row>
     <row r="2" spans="1:1024" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z2" s="52" t="s">
+      <c r="Z2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="52"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="41"/>
+      <c r="AF2" s="41"/>
+      <c r="AG2" s="41"/>
+      <c r="AH2" s="41"/>
+      <c r="AI2" s="41"/>
     </row>
     <row r="3" spans="1:1024" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:1024" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AE4" s="52"/>
-      <c r="AF4" s="52"/>
-      <c r="AG4" s="52"/>
-      <c r="AH4" s="52"/>
-      <c r="AI4" s="52"/>
-      <c r="AJ4" s="52"/>
+      <c r="AE4" s="41"/>
+      <c r="AF4" s="41"/>
+      <c r="AG4" s="41"/>
+      <c r="AH4" s="41"/>
+      <c r="AI4" s="41"/>
+      <c r="AJ4" s="41"/>
     </row>
     <row r="5" spans="1:1024" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z5" s="49" t="s">
+      <c r="Z5" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="AA5" s="49"/>
-      <c r="AB5" s="49"/>
-      <c r="AE5" s="49" t="s">
+      <c r="AA5" s="42"/>
+      <c r="AB5" s="42"/>
+      <c r="AE5" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="AF5" s="49"/>
-      <c r="AG5" s="49"/>
-      <c r="AH5" s="49"/>
-      <c r="AI5" s="49"/>
-      <c r="AJ5" s="49"/>
+      <c r="AF5" s="42"/>
+      <c r="AG5" s="42"/>
+      <c r="AH5" s="42"/>
+      <c r="AI5" s="42"/>
+      <c r="AJ5" s="42"/>
     </row>
     <row r="6" spans="1:1024" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:1024" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AH7" s="49" t="s">
+      <c r="AH7" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="AI7" s="49"/>
-      <c r="AJ7" s="49"/>
+      <c r="AI7" s="42"/>
+      <c r="AJ7" s="42"/>
     </row>
     <row r="8" spans="1:1024" ht="41.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G8" s="47" t="s">
+      <c r="G8" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="47"/>
-      <c r="S8" s="47"/>
-      <c r="T8" s="47"/>
-      <c r="U8" s="47"/>
-      <c r="V8" s="47"/>
-      <c r="W8" s="47"/>
-      <c r="X8" s="47"/>
-      <c r="Y8" s="47"/>
-      <c r="Z8" s="47"/>
-      <c r="AA8" s="47"/>
-      <c r="AB8" s="47"/>
-      <c r="AC8" s="47"/>
-      <c r="AD8" s="47"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="43"/>
+      <c r="U8" s="43"/>
+      <c r="V8" s="43"/>
+      <c r="W8" s="43"/>
+      <c r="X8" s="43"/>
+      <c r="Y8" s="43"/>
+      <c r="Z8" s="43"/>
+      <c r="AA8" s="43"/>
+      <c r="AB8" s="43"/>
+      <c r="AC8" s="43"/>
+      <c r="AD8" s="43"/>
     </row>
     <row r="9" spans="1:1024" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:1024" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="48"/>
-      <c r="R10" s="48"/>
-      <c r="S10" s="48"/>
-      <c r="T10" s="48"/>
-      <c r="U10" s="48"/>
-      <c r="V10" s="48"/>
-      <c r="W10" s="48"/>
-      <c r="X10" s="48"/>
-      <c r="Y10" s="48"/>
-      <c r="Z10" s="48"/>
-      <c r="AA10" s="48"/>
-      <c r="AB10" s="48"/>
-      <c r="AC10" s="48"/>
-      <c r="AD10" s="48"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="44"/>
+      <c r="P10" s="44"/>
+      <c r="Q10" s="44"/>
+      <c r="R10" s="44"/>
+      <c r="S10" s="44"/>
+      <c r="T10" s="44"/>
+      <c r="U10" s="44"/>
+      <c r="V10" s="44"/>
+      <c r="W10" s="44"/>
+      <c r="X10" s="44"/>
+      <c r="Y10" s="44"/>
+      <c r="Z10" s="44"/>
+      <c r="AA10" s="44"/>
+      <c r="AB10" s="44"/>
+      <c r="AC10" s="44"/>
+      <c r="AD10" s="44"/>
     </row>
     <row r="11" spans="1:1024" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G11" s="49" t="s">
+      <c r="G11" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="49"/>
-      <c r="P11" s="49"/>
-      <c r="Q11" s="49"/>
-      <c r="R11" s="49"/>
-      <c r="S11" s="49"/>
-      <c r="T11" s="49"/>
-      <c r="U11" s="49"/>
-      <c r="V11" s="49"/>
-      <c r="W11" s="49"/>
-      <c r="X11" s="49"/>
-      <c r="Y11" s="49"/>
-      <c r="Z11" s="49"/>
-      <c r="AA11" s="49"/>
-      <c r="AB11" s="49"/>
-      <c r="AC11" s="49"/>
-      <c r="AD11" s="49"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="42"/>
+      <c r="T11" s="42"/>
+      <c r="U11" s="42"/>
+      <c r="V11" s="42"/>
+      <c r="W11" s="42"/>
+      <c r="X11" s="42"/>
+      <c r="Y11" s="42"/>
+      <c r="Z11" s="42"/>
+      <c r="AA11" s="42"/>
+      <c r="AB11" s="42"/>
+      <c r="AC11" s="42"/>
+      <c r="AD11" s="42"/>
     </row>
     <row r="12" spans="1:1024" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:1024" s="3" customFormat="1" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2166,62 +2166,62 @@
       <c r="B13" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="50" t="s">
+      <c r="C13" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="41" t="s">
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="50" t="s">
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="M13" s="50"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="41" t="s">
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="41"/>
-      <c r="R13" s="41" t="s">
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="S13" s="41"/>
-      <c r="T13" s="41" t="s">
+      <c r="S13" s="46"/>
+      <c r="T13" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="U13" s="41"/>
-      <c r="V13" s="41"/>
-      <c r="W13" s="41"/>
-      <c r="X13" s="41" t="s">
+      <c r="U13" s="46"/>
+      <c r="V13" s="46"/>
+      <c r="W13" s="46"/>
+      <c r="X13" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="Y13" s="41"/>
-      <c r="Z13" s="41"/>
-      <c r="AA13" s="51" t="s">
+      <c r="Y13" s="46"/>
+      <c r="Z13" s="46"/>
+      <c r="AA13" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="AB13" s="51"/>
-      <c r="AC13" s="51"/>
-      <c r="AD13" s="41" t="s">
+      <c r="AB13" s="47"/>
+      <c r="AC13" s="47"/>
+      <c r="AD13" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="AE13" s="41"/>
-      <c r="AF13" s="41"/>
-      <c r="AG13" s="41" t="s">
+      <c r="AE13" s="46"/>
+      <c r="AF13" s="46"/>
+      <c r="AG13" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="AH13" s="41"/>
-      <c r="AI13" s="42" t="s">
+      <c r="AH13" s="46"/>
+      <c r="AI13" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="AJ13" s="42"/>
+      <c r="AJ13" s="48"/>
       <c r="AMJ13"/>
     </row>
     <row r="14" spans="1:1024" s="5" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2231,62 +2231,62 @@
       <c r="B14" s="15">
         <v>2</v>
       </c>
-      <c r="C14" s="43">
+      <c r="C14" s="49">
         <v>3</v>
       </c>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="45">
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="51">
         <v>4</v>
       </c>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="43">
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="49">
         <v>5</v>
       </c>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="43">
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49">
         <v>6</v>
       </c>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="43"/>
-      <c r="R14" s="43">
+      <c r="P14" s="49"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="49">
         <v>7</v>
       </c>
-      <c r="S14" s="43"/>
-      <c r="T14" s="43">
+      <c r="S14" s="49"/>
+      <c r="T14" s="49">
         <v>8</v>
       </c>
-      <c r="U14" s="43"/>
-      <c r="V14" s="43"/>
-      <c r="W14" s="43"/>
-      <c r="X14" s="43">
+      <c r="U14" s="49"/>
+      <c r="V14" s="49"/>
+      <c r="W14" s="49"/>
+      <c r="X14" s="49">
         <v>9</v>
       </c>
-      <c r="Y14" s="43"/>
-      <c r="Z14" s="43"/>
-      <c r="AA14" s="46">
+      <c r="Y14" s="49"/>
+      <c r="Z14" s="49"/>
+      <c r="AA14" s="52">
         <v>10</v>
       </c>
-      <c r="AB14" s="46"/>
-      <c r="AC14" s="46"/>
-      <c r="AD14" s="43">
+      <c r="AB14" s="52"/>
+      <c r="AC14" s="52"/>
+      <c r="AD14" s="49">
         <v>11</v>
       </c>
-      <c r="AE14" s="43"/>
-      <c r="AF14" s="43"/>
-      <c r="AG14" s="43">
+      <c r="AE14" s="49"/>
+      <c r="AF14" s="49"/>
+      <c r="AG14" s="49">
         <v>12</v>
       </c>
-      <c r="AH14" s="43"/>
-      <c r="AI14" s="44">
+      <c r="AH14" s="49"/>
+      <c r="AI14" s="50">
         <v>13</v>
       </c>
-      <c r="AJ14" s="44"/>
+      <c r="AJ14" s="50"/>
       <c r="AMJ14"/>
     </row>
     <row r="15" spans="1:1024" s="20" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2652,23 +2652,6 @@
     <row r="36" spans="5:1024" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="Z2:AI2"/>
-    <mergeCell ref="AE4:AJ4"/>
-    <mergeCell ref="Z5:AB5"/>
-    <mergeCell ref="AE5:AJ5"/>
-    <mergeCell ref="AH7:AJ7"/>
-    <mergeCell ref="G8:AD8"/>
-    <mergeCell ref="G10:AD10"/>
-    <mergeCell ref="G11:AD11"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:K13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="T13:W13"/>
-    <mergeCell ref="X13:Z13"/>
-    <mergeCell ref="AA13:AC13"/>
-    <mergeCell ref="AD13:AF13"/>
     <mergeCell ref="AG13:AH13"/>
     <mergeCell ref="AI13:AJ13"/>
     <mergeCell ref="AG14:AH14"/>
@@ -2682,6 +2665,23 @@
     <mergeCell ref="X14:Z14"/>
     <mergeCell ref="AA14:AC14"/>
     <mergeCell ref="AD14:AF14"/>
+    <mergeCell ref="G8:AD8"/>
+    <mergeCell ref="G10:AD10"/>
+    <mergeCell ref="G11:AD11"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:K13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="T13:W13"/>
+    <mergeCell ref="X13:Z13"/>
+    <mergeCell ref="AA13:AC13"/>
+    <mergeCell ref="AD13:AF13"/>
+    <mergeCell ref="Z2:AI2"/>
+    <mergeCell ref="AE4:AJ4"/>
+    <mergeCell ref="Z5:AB5"/>
+    <mergeCell ref="AE5:AJ5"/>
+    <mergeCell ref="AH7:AJ7"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.39374999999999999" right="0.39374999999999999" top="0.39374999999999999" bottom="0.39374999999999999" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -2694,7 +2694,7 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2820,7 +2820,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="36" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="28" t="e">
@@ -2837,7 +2837,7 @@
       <c r="K13" s="29"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="35" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="37" t="e">

--- a/Реестр оцененных опасностей_ИОУПР.xlsx
+++ b/Реестр оцененных опасностей_ИОУПР.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zheny\OneDrive\Desktop\печеня\dev\techoavia-roman-backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11608512-BAA9-4526-837E-0FF283C76686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A67973A-FABD-4990-B6FB-FECE96F4C8AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="реестр опасностей" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,8 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'реестр опасностей'!$A$15:$AJ$15</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'реестр опасностей'!$A$1:$AJ$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'реестр опасностей'!#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'реестр опасностей'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
   <si>
     <t>УТВЕРЖДАЮ:</t>
   </si>
@@ -53,19 +53,9 @@
     <t>(подпись)</t>
   </si>
   <si>
-    <t>(Ф.И.О.)</t>
-  </si>
-  <si>
     <t>(дата)</t>
   </si>
   <si>
-    <t>Реестр оцененных опасностей предприятия
-Опасности, действующие на всех работников предприятия</t>
-  </si>
-  <si>
-    <t>(полное наименование организации)</t>
-  </si>
-  <si>
     <t>№ п/п</t>
   </si>
   <si>
@@ -91,12 +81,6 @@
   </si>
   <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>Члены комиссии по проведению оценки профессиональных рисков:</t>
-  </si>
-  <si>
-    <t>(должность)</t>
   </si>
   <si>
     <t>Источник опасности</t>
@@ -168,6 +152,19 @@
   </si>
   <si>
     <t>10. Подписать данные в формате "число,число %"</t>
+  </si>
+  <si>
+    <t>Реестр оцененных опасностей предприятия.
+Опасности, действующие на всех работников предприятия</t>
+  </si>
+  <si>
+    <t>Члены комиссии:</t>
+  </si>
+  <si>
+    <t>"___" ______ 20___</t>
+  </si>
+  <si>
+    <t>в</t>
   </si>
 </sst>
 </file>
@@ -177,32 +174,15 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <name val="Arial"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -213,13 +193,48 @@
       <charset val="204"/>
     </font>
     <font>
+      <b/>
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
-      <sz val="8"/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
@@ -263,7 +278,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -278,109 +293,6 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -422,155 +334,142 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1979,711 +1878,424 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ36"/>
+  <dimension ref="A1:Z20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10" style="1" customWidth="1"/>
-    <col min="3" max="4" width="0.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="1"/>
-    <col min="6" max="6" width="1" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="1" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8" style="1" customWidth="1"/>
-    <col min="10" max="10" width="2.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="3.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="1.83203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="5.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="3.33203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="7.1640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="10.5" style="1"/>
-    <col min="17" max="17" width="5" style="1" customWidth="1"/>
-    <col min="18" max="18" width="5.5" style="1" customWidth="1"/>
-    <col min="19" max="19" width="7.33203125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="3.1640625" style="1" customWidth="1"/>
-    <col min="21" max="22" width="5.33203125" style="1" customWidth="1"/>
-    <col min="23" max="23" width="1" style="1" customWidth="1"/>
-    <col min="24" max="24" width="5.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" customWidth="1"/>
+    <col min="3" max="3" width="7.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8" style="1" customWidth="1"/>
+    <col min="8" max="12" width="7.33203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13" style="1" customWidth="1"/>
+    <col min="14" max="14" width="5.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="4.1640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="3" style="1" customWidth="1"/>
+    <col min="17" max="17" width="7.5" style="1" customWidth="1"/>
+    <col min="18" max="18" width="5.33203125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="0.1640625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="5.1640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="5.33203125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="1" style="1" customWidth="1"/>
+    <col min="23" max="23" width="4.1640625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="6.5" style="1" customWidth="1"/>
     <col min="25" max="25" width="4.1640625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="3" style="1" customWidth="1"/>
-    <col min="27" max="27" width="7.5" style="1" customWidth="1"/>
-    <col min="28" max="28" width="5.33203125" style="1" customWidth="1"/>
-    <col min="29" max="29" width="0.1640625" style="1" customWidth="1"/>
-    <col min="30" max="30" width="5.1640625" style="1" customWidth="1"/>
-    <col min="31" max="31" width="5.33203125" style="1" customWidth="1"/>
-    <col min="32" max="32" width="1" style="1" customWidth="1"/>
-    <col min="33" max="33" width="4.1640625" style="1" customWidth="1"/>
-    <col min="34" max="34" width="6.5" style="1" customWidth="1"/>
-    <col min="35" max="35" width="4.1640625" style="1" customWidth="1"/>
-    <col min="36" max="36" width="10.1640625" style="1" customWidth="1"/>
-    <col min="1024" max="1024" width="14.33203125" customWidth="1"/>
+    <col min="26" max="26" width="10.1640625" style="1" customWidth="1"/>
+    <col min="1014" max="1014" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z1" s="2" t="s">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="AA1" s="2"/>
-    </row>
-    <row r="2" spans="1:1024" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z2" s="41" t="s">
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+    </row>
+    <row r="2" spans="1:26" s="45" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="41"/>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="41"/>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="41"/>
-      <c r="AI2" s="41"/>
-    </row>
-    <row r="3" spans="1:1024" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:1024" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AE4" s="41"/>
-      <c r="AF4" s="41"/>
-      <c r="AG4" s="41"/>
-      <c r="AH4" s="41"/>
-      <c r="AI4" s="41"/>
-      <c r="AJ4" s="41"/>
-    </row>
-    <row r="5" spans="1:1024" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z5" s="42" t="s">
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="44"/>
+    </row>
+    <row r="3" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="19"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="AA5" s="42"/>
-      <c r="AB5" s="42"/>
-      <c r="AE5" s="42" t="s">
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+    </row>
+    <row r="5" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="19"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+    </row>
+    <row r="6" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="19"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="AF5" s="42"/>
-      <c r="AG5" s="42"/>
-      <c r="AH5" s="42"/>
-      <c r="AI5" s="42"/>
-      <c r="AJ5" s="42"/>
-    </row>
-    <row r="6" spans="1:1024" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:1024" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AH7" s="42" t="s">
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+    </row>
+    <row r="7" spans="1:26" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="25"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+    </row>
+    <row r="8" spans="1:26" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="39"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+    </row>
+    <row r="9" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:26" ht="67.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="AI7" s="42"/>
-      <c r="AJ7" s="42"/>
-    </row>
-    <row r="8" spans="1:1024" ht="41.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G8" s="43" t="s">
+      <c r="B10" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="43"/>
-      <c r="T8" s="43"/>
-      <c r="U8" s="43"/>
-      <c r="V8" s="43"/>
-      <c r="W8" s="43"/>
-      <c r="X8" s="43"/>
-      <c r="Y8" s="43"/>
-      <c r="Z8" s="43"/>
-      <c r="AA8" s="43"/>
-      <c r="AB8" s="43"/>
-      <c r="AC8" s="43"/>
-      <c r="AD8" s="43"/>
-    </row>
-    <row r="9" spans="1:1024" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:1024" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="44"/>
-      <c r="P10" s="44"/>
-      <c r="Q10" s="44"/>
-      <c r="R10" s="44"/>
-      <c r="S10" s="44"/>
-      <c r="T10" s="44"/>
-      <c r="U10" s="44"/>
-      <c r="V10" s="44"/>
-      <c r="W10" s="44"/>
-      <c r="X10" s="44"/>
-      <c r="Y10" s="44"/>
-      <c r="Z10" s="44"/>
-      <c r="AA10" s="44"/>
-      <c r="AB10" s="44"/>
-      <c r="AC10" s="44"/>
-      <c r="AD10" s="44"/>
-    </row>
-    <row r="11" spans="1:1024" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G11" s="42" t="s">
+      <c r="E10" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="42"/>
-      <c r="O11" s="42"/>
-      <c r="P11" s="42"/>
-      <c r="Q11" s="42"/>
-      <c r="R11" s="42"/>
-      <c r="S11" s="42"/>
-      <c r="T11" s="42"/>
-      <c r="U11" s="42"/>
-      <c r="V11" s="42"/>
-      <c r="W11" s="42"/>
-      <c r="X11" s="42"/>
-      <c r="Y11" s="42"/>
-      <c r="Z11" s="42"/>
-      <c r="AA11" s="42"/>
-      <c r="AB11" s="42"/>
-      <c r="AC11" s="42"/>
-      <c r="AD11" s="42"/>
-    </row>
-    <row r="12" spans="1:1024" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:1024" s="3" customFormat="1" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="G10" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="46" t="s">
+      <c r="H10" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="M13" s="45"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="46" t="s">
+      <c r="J10" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="46"/>
-      <c r="R13" s="46" t="s">
+      <c r="K10" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="S13" s="46"/>
-      <c r="T13" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="U13" s="46"/>
-      <c r="V13" s="46"/>
-      <c r="W13" s="46"/>
-      <c r="X13" s="46" t="s">
+      <c r="L10" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="Y13" s="46"/>
-      <c r="Z13" s="46"/>
-      <c r="AA13" s="47" t="s">
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A11" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="AB13" s="47"/>
-      <c r="AC13" s="47"/>
-      <c r="AD13" s="46" t="s">
+      <c r="B11" s="36">
+        <v>2</v>
+      </c>
+      <c r="C11" s="36">
+        <v>3</v>
+      </c>
+      <c r="D11" s="36">
+        <v>4</v>
+      </c>
+      <c r="E11" s="36">
+        <v>5</v>
+      </c>
+      <c r="F11" s="36">
+        <v>6</v>
+      </c>
+      <c r="G11" s="36">
+        <v>7</v>
+      </c>
+      <c r="H11" s="36">
+        <v>8</v>
+      </c>
+      <c r="I11" s="36">
+        <v>9</v>
+      </c>
+      <c r="J11" s="36">
+        <v>10</v>
+      </c>
+      <c r="K11" s="36">
+        <v>11</v>
+      </c>
+      <c r="L11" s="36">
+        <v>12</v>
+      </c>
+      <c r="M11" s="36">
         <v>13</v>
       </c>
-      <c r="AE13" s="46"/>
-      <c r="AF13" s="46"/>
-      <c r="AG13" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="AH13" s="46"/>
-      <c r="AI13" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ13" s="48"/>
-      <c r="AMJ13"/>
-    </row>
-    <row r="14" spans="1:1024" s="5" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="15">
-        <v>2</v>
-      </c>
-      <c r="C14" s="49">
-        <v>3</v>
-      </c>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="51">
-        <v>4</v>
-      </c>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="49">
-        <v>5</v>
-      </c>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="49">
-        <v>6</v>
-      </c>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="49"/>
-      <c r="R14" s="49">
-        <v>7</v>
-      </c>
-      <c r="S14" s="49"/>
-      <c r="T14" s="49">
-        <v>8</v>
-      </c>
-      <c r="U14" s="49"/>
-      <c r="V14" s="49"/>
-      <c r="W14" s="49"/>
-      <c r="X14" s="49">
-        <v>9</v>
-      </c>
-      <c r="Y14" s="49"/>
-      <c r="Z14" s="49"/>
-      <c r="AA14" s="52">
-        <v>10</v>
-      </c>
-      <c r="AB14" s="52"/>
-      <c r="AC14" s="52"/>
-      <c r="AD14" s="49">
-        <v>11</v>
-      </c>
-      <c r="AE14" s="49"/>
-      <c r="AF14" s="49"/>
-      <c r="AG14" s="49">
-        <v>12</v>
-      </c>
-      <c r="AH14" s="49"/>
-      <c r="AI14" s="50">
-        <v>13</v>
-      </c>
-      <c r="AJ14" s="50"/>
-      <c r="AMJ14"/>
-    </row>
-    <row r="15" spans="1:1024" s="20" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="23"/>
-      <c r="T15" s="23"/>
-      <c r="U15" s="23"/>
-      <c r="V15" s="23"/>
-      <c r="W15" s="23"/>
-      <c r="X15" s="23"/>
-      <c r="Y15" s="23"/>
-      <c r="Z15" s="23"/>
-      <c r="AA15" s="24"/>
-      <c r="AB15" s="24"/>
-      <c r="AC15" s="24"/>
-      <c r="AD15" s="23"/>
-      <c r="AE15" s="23"/>
-      <c r="AF15" s="23"/>
-      <c r="AG15" s="23"/>
-      <c r="AH15" s="23"/>
-      <c r="AI15" s="23"/>
-      <c r="AJ15" s="23"/>
-    </row>
-    <row r="16" spans="1:1024" s="20" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="23"/>
-      <c r="T16" s="23"/>
-      <c r="U16" s="23"/>
-      <c r="V16" s="23"/>
-      <c r="W16" s="23"/>
-      <c r="X16" s="23"/>
-      <c r="Y16" s="23"/>
-      <c r="Z16" s="23"/>
-      <c r="AA16" s="24"/>
-      <c r="AB16" s="24"/>
-      <c r="AC16" s="24"/>
-      <c r="AD16" s="23"/>
-      <c r="AE16" s="23"/>
-      <c r="AF16" s="23"/>
-      <c r="AG16" s="23"/>
-      <c r="AH16" s="23"/>
-      <c r="AI16" s="23"/>
-      <c r="AJ16" s="23"/>
-    </row>
-    <row r="17" spans="1:1024" s="5" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="21"/>
-      <c r="T17" s="21"/>
-      <c r="U17" s="21"/>
-      <c r="V17" s="21"/>
-      <c r="W17" s="21"/>
-      <c r="X17" s="21"/>
-      <c r="Y17" s="21"/>
-      <c r="Z17" s="21"/>
-      <c r="AA17" s="22"/>
-      <c r="AB17" s="22"/>
-      <c r="AC17" s="22"/>
-      <c r="AD17" s="21"/>
-      <c r="AE17" s="21"/>
-      <c r="AF17" s="21"/>
-      <c r="AG17" s="21"/>
-      <c r="AH17" s="21"/>
-      <c r="AI17" s="21"/>
-      <c r="AJ17" s="21"/>
-      <c r="AMJ17"/>
-    </row>
-    <row r="18" spans="1:1024" s="7" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="13"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="12"/>
-      <c r="W18" s="12"/>
-      <c r="X18" s="12"/>
-      <c r="Y18" s="12"/>
-      <c r="Z18" s="12"/>
-      <c r="AA18" s="9"/>
-      <c r="AB18" s="9"/>
-      <c r="AC18" s="9"/>
-      <c r="AD18" s="12"/>
-      <c r="AE18" s="12"/>
-      <c r="AF18" s="12"/>
-      <c r="AG18" s="12"/>
-      <c r="AH18" s="12"/>
-      <c r="AI18" s="12"/>
-      <c r="AJ18" s="12"/>
-      <c r="AMJ18"/>
-    </row>
-    <row r="19" spans="1:1024" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="1:1024" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-    </row>
-    <row r="21" spans="1:1024" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AMJ21"/>
-    </row>
-    <row r="22" spans="1:1024" s="7" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
-      <c r="AMJ22"/>
-    </row>
-    <row r="23" spans="1:1024" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E23" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="N23" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="O23" s="19"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="19"/>
-      <c r="R23" s="19"/>
-      <c r="U23" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="V23" s="18"/>
-      <c r="Z23" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA23" s="18"/>
-      <c r="AB23" s="18"/>
-      <c r="AC23" s="18"/>
-      <c r="AD23" s="18"/>
-    </row>
-    <row r="24" spans="1:1024" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:1024" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AMJ25"/>
-    </row>
-    <row r="26" spans="1:1024" s="7" customFormat="1" ht="60.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="17"/>
-      <c r="AMJ26"/>
-    </row>
-    <row r="27" spans="1:1024" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E27" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="N27" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="O27" s="19"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="19"/>
-      <c r="U27" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="V27" s="18"/>
-      <c r="Z27" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA27" s="18"/>
-      <c r="AB27" s="18"/>
-      <c r="AC27" s="18"/>
-      <c r="AD27" s="18"/>
-    </row>
-    <row r="28" spans="1:1024" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:1024" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AMJ29"/>
-    </row>
-    <row r="30" spans="1:1024" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
-      <c r="R30" s="17"/>
-      <c r="AMJ30"/>
-    </row>
-    <row r="31" spans="1:1024" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E31" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
-      <c r="N31" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="O31" s="19"/>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="19"/>
-      <c r="R31" s="19"/>
-      <c r="U31" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="V31" s="18"/>
-      <c r="Z31" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA31" s="18"/>
-      <c r="AB31" s="18"/>
-      <c r="AC31" s="18"/>
-      <c r="AD31" s="18"/>
-    </row>
-    <row r="32" spans="1:1024" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" spans="5:1024" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AMJ33"/>
-    </row>
-    <row r="34" spans="5:1024" s="7" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
-      <c r="R34" s="17"/>
-      <c r="AMJ34"/>
-    </row>
-    <row r="35" spans="5:1024" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E35" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="18"/>
-      <c r="N35" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="O35" s="19"/>
-      <c r="P35" s="19"/>
-      <c r="Q35" s="19"/>
-      <c r="R35" s="19"/>
-      <c r="U35" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="V35" s="18"/>
-      <c r="Z35" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA35" s="18"/>
-      <c r="AB35" s="18"/>
-      <c r="AC35" s="18"/>
-      <c r="AD35" s="18"/>
-    </row>
-    <row r="36" spans="5:1024" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    </row>
+    <row r="13" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="20"/>
+      <c r="B13" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+    </row>
+    <row r="14" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="29"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="M14" s="27"/>
+    </row>
+    <row r="15" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="33"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+    </row>
+    <row r="16" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" s="29"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="M16" s="27"/>
+    </row>
+    <row r="17" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" s="33"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+    </row>
+    <row r="18" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="29"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="M18" s="27"/>
+    </row>
+    <row r="19" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" s="33"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+    </row>
+    <row r="20" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="29"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="M20" s="27"/>
+    </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AI13:AJ13"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="AI14:AJ14"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:K14"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="O14:Q14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="T14:W14"/>
-    <mergeCell ref="X14:Z14"/>
-    <mergeCell ref="AA14:AC14"/>
-    <mergeCell ref="AD14:AF14"/>
-    <mergeCell ref="G8:AD8"/>
-    <mergeCell ref="G10:AD10"/>
-    <mergeCell ref="G11:AD11"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:K13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="T13:W13"/>
-    <mergeCell ref="X13:Z13"/>
-    <mergeCell ref="AA13:AC13"/>
-    <mergeCell ref="AD13:AF13"/>
-    <mergeCell ref="Z2:AI2"/>
-    <mergeCell ref="AE4:AJ4"/>
-    <mergeCell ref="Z5:AB5"/>
-    <mergeCell ref="AE5:AJ5"/>
-    <mergeCell ref="AH7:AJ7"/>
+  <mergeCells count="9">
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K6:M6"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.39374999999999999" right="0.39374999999999999" top="0.39374999999999999" bottom="0.39374999999999999" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" scale="66" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2693,7 +2305,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25ECD3D4-4F2F-492B-A7B7-07C1954388F5}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -2705,238 +2317,238 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="101.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>26</v>
+      <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="27">
+      <c r="A3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="5">
         <v>0</v>
       </c>
-      <c r="C3" s="28" t="e">
+      <c r="C3" s="6" t="e">
         <f>100*B3/$B$8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="30">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="8">
         <v>0</v>
       </c>
-      <c r="C4" s="28" t="e">
+      <c r="C4" s="6" t="e">
         <f t="shared" ref="C4:C7" si="0">100*B4/$B$8</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="30">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="8">
         <v>0</v>
       </c>
-      <c r="C5" s="28" t="e">
+      <c r="C5" s="6" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="30">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="8">
         <v>0</v>
       </c>
-      <c r="C6" s="28" t="e">
+      <c r="C6" s="6" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="30">
+      <c r="A7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="8">
         <v>0</v>
       </c>
-      <c r="C7" s="28" t="e">
+      <c r="C7" s="6" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="31" t="s">
-        <v>27</v>
+      <c r="A8" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="B8">
         <f>SUM(B3:B7)</f>
         <v>0</v>
       </c>
-      <c r="C8" s="32"/>
+      <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="33"/>
-      <c r="C9" s="32"/>
+      <c r="A9" s="11"/>
+      <c r="C9" s="10"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="33"/>
-      <c r="C10" s="32"/>
+      <c r="A10" s="11"/>
+      <c r="C10" s="10"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="34" t="s">
-        <v>28</v>
+      <c r="A11" s="12" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>26</v>
+      <c r="A12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="28" t="e">
+      <c r="A13" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="6" t="e">
         <f>C3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="37" t="e">
+      <c r="A14" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="15" t="e">
         <f>C4</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="37" t="e">
+      <c r="A15" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="15" t="e">
         <f>C5</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="37" t="e">
+      <c r="A16" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="15" t="e">
         <f>C6</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="37" t="e">
+      <c r="A17" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="15" t="e">
         <f>C7</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="31"/>
+      <c r="A18" s="9"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="33"/>
-      <c r="C19" s="32"/>
+      <c r="A19" s="11"/>
+      <c r="C19" s="10"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
